--- a/AAII_Financials/Yearly/MXMTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MXMTY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>MXMTY</t>
   </si>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>70500</v>
+        <v>59200</v>
       </c>
       <c r="E8" s="3">
-        <v>120900</v>
+        <v>101500</v>
       </c>
       <c r="F8" s="3">
-        <v>132400</v>
+        <v>111100</v>
       </c>
       <c r="G8" s="3">
-        <v>127000</v>
+        <v>106600</v>
       </c>
       <c r="H8" s="3">
-        <v>144200</v>
+        <v>121100</v>
       </c>
       <c r="I8" s="3">
-        <v>132300</v>
+        <v>111100</v>
       </c>
       <c r="J8" s="3">
-        <v>118000</v>
+        <v>99100</v>
       </c>
       <c r="K8" s="3">
         <v>122900</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>44400</v>
+        <v>37200</v>
       </c>
       <c r="E9" s="3">
-        <v>90500</v>
+        <v>76000</v>
       </c>
       <c r="F9" s="3">
-        <v>104200</v>
+        <v>87500</v>
       </c>
       <c r="G9" s="3">
-        <v>80200</v>
+        <v>67300</v>
       </c>
       <c r="H9" s="3">
-        <v>87100</v>
+        <v>73100</v>
       </c>
       <c r="I9" s="3">
-        <v>142900</v>
+        <v>120000</v>
       </c>
       <c r="J9" s="3">
-        <v>43500</v>
+        <v>36600</v>
       </c>
       <c r="K9" s="3">
         <v>39800</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>26200</v>
+        <v>22000</v>
       </c>
       <c r="E10" s="3">
-        <v>30400</v>
+        <v>25500</v>
       </c>
       <c r="F10" s="3">
-        <v>28200</v>
+        <v>23700</v>
       </c>
       <c r="G10" s="3">
-        <v>46800</v>
+        <v>39300</v>
       </c>
       <c r="H10" s="3">
-        <v>57100</v>
+        <v>48000</v>
       </c>
       <c r="I10" s="3">
-        <v>-10600</v>
+        <v>-8900</v>
       </c>
       <c r="J10" s="3">
-        <v>74500</v>
+        <v>62500</v>
       </c>
       <c r="K10" s="3">
         <v>83000</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="3">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="F14" s="3">
-        <v>60800</v>
+        <v>51000</v>
       </c>
       <c r="G14" s="3">
-        <v>-5500</v>
+        <v>-4600</v>
       </c>
       <c r="H14" s="3">
-        <v>-1900</v>
+        <v>-1600</v>
       </c>
       <c r="I14" s="3">
-        <v>31900</v>
+        <v>26800</v>
       </c>
       <c r="J14" s="3">
-        <v>-4900</v>
+        <v>-4100</v>
       </c>
       <c r="K14" s="3">
         <v>400</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E15" s="3">
         <v>300</v>
       </c>
       <c r="F15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G15" s="3">
+        <v>400</v>
+      </c>
+      <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="H15" s="3">
-        <v>600</v>
-      </c>
       <c r="I15" s="3">
-        <v>32200</v>
+        <v>27100</v>
       </c>
       <c r="J15" s="3">
-        <v>30900</v>
+        <v>26000</v>
       </c>
       <c r="K15" s="3">
         <v>34600</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>74000</v>
+        <v>62100</v>
       </c>
       <c r="E17" s="3">
-        <v>120500</v>
+        <v>101200</v>
       </c>
       <c r="F17" s="3">
-        <v>210300</v>
+        <v>176600</v>
       </c>
       <c r="G17" s="3">
-        <v>125800</v>
+        <v>105600</v>
       </c>
       <c r="H17" s="3">
-        <v>139300</v>
+        <v>116900</v>
       </c>
       <c r="I17" s="3">
-        <v>186000</v>
+        <v>156200</v>
       </c>
       <c r="J17" s="3">
-        <v>116200</v>
+        <v>97600</v>
       </c>
       <c r="K17" s="3">
         <v>122400</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3500</v>
+        <v>-2900</v>
       </c>
       <c r="E18" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F18" s="3">
-        <v>-77900</v>
+        <v>-65400</v>
       </c>
       <c r="G18" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H18" s="3">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="I18" s="3">
-        <v>-53700</v>
+        <v>-45100</v>
       </c>
       <c r="J18" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K18" s="3">
         <v>500</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2300</v>
+        <v>-1900</v>
       </c>
       <c r="E20" s="3">
-        <v>7900</v>
+        <v>6600</v>
       </c>
       <c r="F20" s="3">
-        <v>-20900</v>
+        <v>-17600</v>
       </c>
       <c r="G20" s="3">
-        <v>-22200</v>
+        <v>-18600</v>
       </c>
       <c r="H20" s="3">
-        <v>-21100</v>
+        <v>-17700</v>
       </c>
       <c r="I20" s="3">
-        <v>-12100</v>
+        <v>-10200</v>
       </c>
       <c r="J20" s="3">
-        <v>7900</v>
+        <v>6600</v>
       </c>
       <c r="K20" s="3">
         <v>-12400</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="E21" s="3">
-        <v>19600</v>
+        <v>16400</v>
       </c>
       <c r="F21" s="3">
-        <v>-79100</v>
+        <v>-66500</v>
       </c>
       <c r="G21" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="H21" s="3">
-        <v>3600</v>
+        <v>2900</v>
       </c>
       <c r="I21" s="3">
-        <v>-35000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>40700</v>
+        <v>-29500</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9600</v>
+        <v>8100</v>
       </c>
       <c r="E22" s="3">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="F22" s="3">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="G22" s="3">
-        <v>8500</v>
+        <v>7100</v>
       </c>
       <c r="H22" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="I22" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J22" s="3">
-        <v>16100</v>
+        <v>13500</v>
       </c>
       <c r="K22" s="3">
         <v>15400</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15400</v>
+        <v>-12900</v>
       </c>
       <c r="E23" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="F23" s="3">
-        <v>-113200</v>
+        <v>-95000</v>
       </c>
       <c r="G23" s="3">
-        <v>-29400</v>
+        <v>-24700</v>
       </c>
       <c r="H23" s="3">
-        <v>-17000</v>
+        <v>-14300</v>
       </c>
       <c r="I23" s="3">
-        <v>-66700</v>
+        <v>-56000</v>
       </c>
       <c r="J23" s="3">
-        <v>-6500</v>
+        <v>-5400</v>
       </c>
       <c r="K23" s="3">
         <v>-27300</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G24" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="H24" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I24" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J24" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K24" s="3">
         <v>-800</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16900</v>
+        <v>-14200</v>
       </c>
       <c r="E26" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="F26" s="3">
-        <v>-113600</v>
+        <v>-95300</v>
       </c>
       <c r="G26" s="3">
-        <v>-31300</v>
+        <v>-26300</v>
       </c>
       <c r="H26" s="3">
-        <v>-16400</v>
+        <v>-13700</v>
       </c>
       <c r="I26" s="3">
-        <v>-67600</v>
+        <v>-56700</v>
       </c>
       <c r="J26" s="3">
-        <v>-7300</v>
+        <v>-6100</v>
       </c>
       <c r="K26" s="3">
         <v>-26500</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15000</v>
+        <v>-12600</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>-113600</v>
+        <v>-95300</v>
       </c>
       <c r="G27" s="3">
-        <v>-31300</v>
+        <v>-26300</v>
       </c>
       <c r="H27" s="3">
-        <v>-16400</v>
+        <v>-13700</v>
       </c>
       <c r="I27" s="3">
-        <v>-67600</v>
+        <v>-56700</v>
       </c>
       <c r="J27" s="3">
-        <v>-7300</v>
+        <v>-6100</v>
       </c>
       <c r="K27" s="3">
         <v>-26100</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="E32" s="3">
-        <v>-7900</v>
+        <v>-6600</v>
       </c>
       <c r="F32" s="3">
-        <v>20900</v>
+        <v>17600</v>
       </c>
       <c r="G32" s="3">
-        <v>22200</v>
+        <v>18600</v>
       </c>
       <c r="H32" s="3">
-        <v>21100</v>
+        <v>17700</v>
       </c>
       <c r="I32" s="3">
-        <v>12100</v>
+        <v>10200</v>
       </c>
       <c r="J32" s="3">
-        <v>-7900</v>
+        <v>-6600</v>
       </c>
       <c r="K32" s="3">
         <v>12400</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15000</v>
+        <v>-12600</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>-113600</v>
+        <v>-95300</v>
       </c>
       <c r="G33" s="3">
-        <v>-31300</v>
+        <v>-26300</v>
       </c>
       <c r="H33" s="3">
-        <v>-16400</v>
+        <v>-13700</v>
       </c>
       <c r="I33" s="3">
-        <v>-67600</v>
+        <v>-56700</v>
       </c>
       <c r="J33" s="3">
-        <v>-7300</v>
+        <v>-6100</v>
       </c>
       <c r="K33" s="3">
         <v>-26100</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15000</v>
+        <v>-12600</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>-113600</v>
+        <v>-95300</v>
       </c>
       <c r="G35" s="3">
-        <v>-31300</v>
+        <v>-26300</v>
       </c>
       <c r="H35" s="3">
-        <v>-16400</v>
+        <v>-13700</v>
       </c>
       <c r="I35" s="3">
-        <v>-67600</v>
+        <v>-56700</v>
       </c>
       <c r="J35" s="3">
-        <v>-7300</v>
+        <v>-6100</v>
       </c>
       <c r="K35" s="3">
         <v>-26100</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24500</v>
+        <v>20600</v>
       </c>
       <c r="E41" s="3">
-        <v>31400</v>
+        <v>26400</v>
       </c>
       <c r="F41" s="3">
-        <v>90300</v>
+        <v>76000</v>
       </c>
       <c r="G41" s="3">
-        <v>42600</v>
+        <v>35900</v>
       </c>
       <c r="H41" s="3">
-        <v>154700</v>
+        <v>130200</v>
       </c>
       <c r="I41" s="3">
-        <v>209500</v>
+        <v>176300</v>
       </c>
       <c r="J41" s="3">
-        <v>7900</v>
+        <v>6600</v>
       </c>
       <c r="K41" s="3">
         <v>20500</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11900</v>
+        <v>10000</v>
       </c>
       <c r="E43" s="3">
-        <v>20300</v>
+        <v>17100</v>
       </c>
       <c r="F43" s="3">
-        <v>37000</v>
+        <v>31200</v>
       </c>
       <c r="G43" s="3">
-        <v>39000</v>
+        <v>32800</v>
       </c>
       <c r="H43" s="3">
-        <v>50700</v>
+        <v>42700</v>
       </c>
       <c r="I43" s="3">
-        <v>41100</v>
+        <v>34600</v>
       </c>
       <c r="J43" s="3">
-        <v>39500</v>
+        <v>33300</v>
       </c>
       <c r="K43" s="3">
         <v>40800</v>
@@ -1665,16 +1665,16 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H44" s="3">
         <v>1600</v>
       </c>
-      <c r="H44" s="3">
-        <v>1900</v>
-      </c>
       <c r="I44" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J44" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K44" s="3">
         <v>500</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E45" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="F45" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="G45" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K45" s="3">
         <v>2700</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>38300</v>
+        <v>32200</v>
       </c>
       <c r="E46" s="3">
-        <v>53900</v>
+        <v>45300</v>
       </c>
       <c r="F46" s="3">
-        <v>64900</v>
+        <v>54600</v>
       </c>
       <c r="G46" s="3">
-        <v>84200</v>
+        <v>70900</v>
       </c>
       <c r="H46" s="3">
-        <v>121100</v>
+        <v>101900</v>
       </c>
       <c r="I46" s="3">
-        <v>147100</v>
+        <v>123800</v>
       </c>
       <c r="J46" s="3">
-        <v>50000</v>
+        <v>42100</v>
       </c>
       <c r="K46" s="3">
         <v>64500</v>
@@ -1752,16 +1752,16 @@
         <v>8</v>
       </c>
       <c r="F47" s="3">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="G47" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H47" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I47" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J47" s="3">
         <v>400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>121100</v>
+        <v>101900</v>
       </c>
       <c r="E48" s="3">
-        <v>126000</v>
+        <v>106000</v>
       </c>
       <c r="F48" s="3">
-        <v>253000</v>
+        <v>212900</v>
       </c>
       <c r="G48" s="3">
-        <v>201900</v>
+        <v>169900</v>
       </c>
       <c r="H48" s="3">
-        <v>371900</v>
+        <v>312900</v>
       </c>
       <c r="I48" s="3">
-        <v>307900</v>
+        <v>259100</v>
       </c>
       <c r="J48" s="3">
-        <v>208700</v>
+        <v>175600</v>
       </c>
       <c r="K48" s="3">
         <v>155300</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14500</v>
+        <v>12200</v>
       </c>
       <c r="E49" s="3">
-        <v>14200</v>
+        <v>11900</v>
       </c>
       <c r="F49" s="3">
-        <v>23700</v>
+        <v>19900</v>
       </c>
       <c r="G49" s="3">
-        <v>11900</v>
+        <v>10100</v>
       </c>
       <c r="H49" s="3">
-        <v>13700</v>
+        <v>11500</v>
       </c>
       <c r="I49" s="3">
-        <v>10500</v>
+        <v>8800</v>
       </c>
       <c r="J49" s="3">
-        <v>7300</v>
+        <v>6100</v>
       </c>
       <c r="K49" s="3">
         <v>7700</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E52" s="3">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="F52" s="3">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="G52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J52" s="3">
         <v>1200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1500</v>
       </c>
       <c r="K52" s="3">
         <v>6900</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>176200</v>
+        <v>148200</v>
       </c>
       <c r="E54" s="3">
-        <v>197000</v>
+        <v>165800</v>
       </c>
       <c r="F54" s="3">
-        <v>206300</v>
+        <v>173600</v>
       </c>
       <c r="G54" s="3">
-        <v>299800</v>
+        <v>252300</v>
       </c>
       <c r="H54" s="3">
-        <v>318700</v>
+        <v>268100</v>
       </c>
       <c r="I54" s="3">
-        <v>308100</v>
+        <v>259200</v>
       </c>
       <c r="J54" s="3">
-        <v>267900</v>
+        <v>225400</v>
       </c>
       <c r="K54" s="3">
         <v>279700</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11600</v>
+        <v>9700</v>
       </c>
       <c r="E57" s="3">
-        <v>17000</v>
+        <v>14300</v>
       </c>
       <c r="F57" s="3">
-        <v>21700</v>
+        <v>18200</v>
       </c>
       <c r="G57" s="3">
-        <v>19600</v>
+        <v>16500</v>
       </c>
       <c r="H57" s="3">
-        <v>32300</v>
+        <v>27100</v>
       </c>
       <c r="I57" s="3">
-        <v>14300</v>
+        <v>12000</v>
       </c>
       <c r="J57" s="3">
-        <v>21800</v>
+        <v>18300</v>
       </c>
       <c r="K57" s="3">
         <v>11200</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="E58" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="F58" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
       </c>
       <c r="H58" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
         <v>5000</v>
       </c>
-      <c r="E59" s="3">
-        <v>5900</v>
-      </c>
       <c r="F59" s="3">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="G59" s="3">
-        <v>6600</v>
+        <v>5600</v>
       </c>
       <c r="H59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J59" s="3">
         <v>3100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>10400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>3600</v>
       </c>
       <c r="K59" s="3">
         <v>3700</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18700</v>
+        <v>15700</v>
       </c>
       <c r="E60" s="3">
-        <v>24900</v>
+        <v>20900</v>
       </c>
       <c r="F60" s="3">
-        <v>25300</v>
+        <v>21300</v>
       </c>
       <c r="G60" s="3">
-        <v>26600</v>
+        <v>22400</v>
       </c>
       <c r="H60" s="3">
-        <v>34700</v>
+        <v>29200</v>
       </c>
       <c r="I60" s="3">
-        <v>25300</v>
+        <v>21300</v>
       </c>
       <c r="J60" s="3">
-        <v>25700</v>
+        <v>21600</v>
       </c>
       <c r="K60" s="3">
         <v>15000</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>115700</v>
+        <v>97400</v>
       </c>
       <c r="E61" s="3">
-        <v>114800</v>
+        <v>96600</v>
       </c>
       <c r="F61" s="3">
-        <v>131900</v>
+        <v>111000</v>
       </c>
       <c r="G61" s="3">
-        <v>118600</v>
+        <v>99800</v>
       </c>
       <c r="H61" s="3">
-        <v>119000</v>
+        <v>100100</v>
       </c>
       <c r="I61" s="3">
-        <v>102600</v>
+        <v>86300</v>
       </c>
       <c r="J61" s="3">
-        <v>122700</v>
+        <v>103200</v>
       </c>
       <c r="K61" s="3">
         <v>142300</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
         <v>2100</v>
       </c>
-      <c r="E62" s="3">
-        <v>2500</v>
-      </c>
       <c r="F62" s="3">
-        <v>8100</v>
+        <v>6800</v>
       </c>
       <c r="G62" s="3">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="H62" s="3">
-        <v>8200</v>
+        <v>6900</v>
       </c>
       <c r="I62" s="3">
-        <v>11100</v>
+        <v>9300</v>
       </c>
       <c r="J62" s="3">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="K62" s="3">
         <v>3600</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>139700</v>
+        <v>117600</v>
       </c>
       <c r="E66" s="3">
-        <v>147500</v>
+        <v>124100</v>
       </c>
       <c r="F66" s="3">
-        <v>164000</v>
+        <v>138000</v>
       </c>
       <c r="G66" s="3">
-        <v>149700</v>
+        <v>126000</v>
       </c>
       <c r="H66" s="3">
-        <v>161000</v>
+        <v>135500</v>
       </c>
       <c r="I66" s="3">
-        <v>138900</v>
+        <v>116900</v>
       </c>
       <c r="J66" s="3">
-        <v>151800</v>
+        <v>127800</v>
       </c>
       <c r="K66" s="3">
         <v>160900</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-48100</v>
+        <v>-40500</v>
       </c>
       <c r="E72" s="3">
-        <v>-31000</v>
+        <v>-26100</v>
       </c>
       <c r="F72" s="3">
-        <v>-741900</v>
+        <v>-624300</v>
       </c>
       <c r="G72" s="3">
-        <v>-257300</v>
+        <v>-216500</v>
       </c>
       <c r="H72" s="3">
-        <v>-226100</v>
+        <v>-190300</v>
       </c>
       <c r="I72" s="3">
-        <v>-276800</v>
+        <v>-232900</v>
       </c>
       <c r="J72" s="3">
-        <v>-142200</v>
+        <v>-119700</v>
       </c>
       <c r="K72" s="3">
         <v>-172400</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>36400</v>
+        <v>30700</v>
       </c>
       <c r="E76" s="3">
-        <v>49500</v>
+        <v>41700</v>
       </c>
       <c r="F76" s="3">
-        <v>42400</v>
+        <v>35700</v>
       </c>
       <c r="G76" s="3">
-        <v>150100</v>
+        <v>126300</v>
       </c>
       <c r="H76" s="3">
-        <v>157700</v>
+        <v>132700</v>
       </c>
       <c r="I76" s="3">
-        <v>169200</v>
+        <v>142300</v>
       </c>
       <c r="J76" s="3">
-        <v>116100</v>
+        <v>97700</v>
       </c>
       <c r="K76" s="3">
         <v>118800</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15000</v>
+        <v>-12600</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>-113600</v>
+        <v>-95300</v>
       </c>
       <c r="G81" s="3">
-        <v>-31300</v>
+        <v>-26300</v>
       </c>
       <c r="H81" s="3">
-        <v>-16400</v>
+        <v>-13700</v>
       </c>
       <c r="I81" s="3">
-        <v>-67600</v>
+        <v>-56700</v>
       </c>
       <c r="J81" s="3">
-        <v>-7300</v>
+        <v>-6100</v>
       </c>
       <c r="K81" s="3">
         <v>-26100</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12700</v>
+        <v>10700</v>
       </c>
       <c r="E83" s="3">
-        <v>11300</v>
+        <v>9500</v>
       </c>
       <c r="F83" s="3">
-        <v>19600</v>
+        <v>16500</v>
       </c>
       <c r="G83" s="3">
-        <v>19100</v>
+        <v>16000</v>
       </c>
       <c r="H83" s="3">
-        <v>19700</v>
+        <v>16600</v>
       </c>
       <c r="I83" s="3">
-        <v>30800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>30900</v>
+        <v>25800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="E89" s="3">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="F89" s="3">
-        <v>23800</v>
+        <v>20000</v>
       </c>
       <c r="G89" s="3">
-        <v>-3300</v>
+        <v>-2800</v>
       </c>
       <c r="H89" s="3">
-        <v>27700</v>
+        <v>23200</v>
       </c>
       <c r="I89" s="3">
-        <v>9100</v>
+        <v>7600</v>
       </c>
       <c r="J89" s="3">
-        <v>41400</v>
+        <v>34800</v>
       </c>
       <c r="K89" s="3">
         <v>19600</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11000</v>
+        <v>-9200</v>
       </c>
       <c r="E91" s="3">
-        <v>-13000</v>
+        <v>-10900</v>
       </c>
       <c r="F91" s="3">
-        <v>-25600</v>
+        <v>-21500</v>
       </c>
       <c r="G91" s="3">
-        <v>-42900</v>
+        <v>-36000</v>
       </c>
       <c r="H91" s="3">
-        <v>-50200</v>
+        <v>-42100</v>
       </c>
       <c r="I91" s="3">
-        <v>-20700</v>
+        <v>-17400</v>
       </c>
       <c r="J91" s="3">
-        <v>-31300</v>
+        <v>-26300</v>
       </c>
       <c r="K91" s="3">
         <v>-37000</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E94" s="3">
-        <v>-10800</v>
+        <v>-9100</v>
       </c>
       <c r="F94" s="3">
-        <v>-10800</v>
+        <v>-9100</v>
       </c>
       <c r="G94" s="3">
-        <v>-39500</v>
+        <v>-33200</v>
       </c>
       <c r="H94" s="3">
-        <v>-50100</v>
+        <v>-42100</v>
       </c>
       <c r="I94" s="3">
-        <v>-20600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-31200</v>
+        <v>-17300</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10000</v>
+        <v>-8400</v>
       </c>
       <c r="E100" s="3">
-        <v>-5000</v>
+        <v>-4200</v>
       </c>
       <c r="F100" s="3">
-        <v>-12700</v>
+        <v>-10700</v>
       </c>
       <c r="G100" s="3">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="H100" s="3">
-        <v>-6300</v>
+        <v>-5300</v>
       </c>
       <c r="I100" s="3">
-        <v>108300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-23700</v>
+        <v>90900</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3215,22 +3215,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>-400</v>
       </c>
       <c r="F101" s="3">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="G101" s="3">
-        <v>4700</v>
+        <v>4000</v>
       </c>
       <c r="H101" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="I101" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6900</v>
+        <v>-5800</v>
       </c>
       <c r="E102" s="3">
-        <v>-13500</v>
+        <v>-11400</v>
       </c>
       <c r="F102" s="3">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="G102" s="3">
-        <v>-34700</v>
+        <v>-29200</v>
       </c>
       <c r="H102" s="3">
-        <v>-27400</v>
+        <v>-23000</v>
       </c>
       <c r="I102" s="3">
-        <v>96900</v>
+        <v>81300</v>
       </c>
       <c r="J102" s="3">
-        <v>-13400</v>
+        <v>-11300</v>
       </c>
       <c r="K102" s="3">
         <v>-31700</v>

--- a/AAII_Financials/Yearly/MXMTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MXMTY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>MXMTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>59200</v>
+        <v>65100</v>
       </c>
       <c r="E8" s="3">
-        <v>101500</v>
+        <v>60000</v>
       </c>
       <c r="F8" s="3">
-        <v>111100</v>
+        <v>102900</v>
       </c>
       <c r="G8" s="3">
-        <v>106600</v>
+        <v>112600</v>
       </c>
       <c r="H8" s="3">
-        <v>121100</v>
+        <v>108000</v>
       </c>
       <c r="I8" s="3">
-        <v>111100</v>
+        <v>122700</v>
       </c>
       <c r="J8" s="3">
+        <v>112500</v>
+      </c>
+      <c r="K8" s="3">
         <v>99100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>122900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>37200</v>
+        <v>55800</v>
       </c>
       <c r="E9" s="3">
-        <v>76000</v>
+        <v>37700</v>
       </c>
       <c r="F9" s="3">
-        <v>87500</v>
+        <v>77000</v>
       </c>
       <c r="G9" s="3">
-        <v>67300</v>
+        <v>88600</v>
       </c>
       <c r="H9" s="3">
-        <v>73100</v>
+        <v>68200</v>
       </c>
       <c r="I9" s="3">
-        <v>120000</v>
+        <v>74100</v>
       </c>
       <c r="J9" s="3">
+        <v>121600</v>
+      </c>
+      <c r="K9" s="3">
         <v>36600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39800</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22000</v>
+        <v>9300</v>
       </c>
       <c r="E10" s="3">
-        <v>25500</v>
+        <v>22300</v>
       </c>
       <c r="F10" s="3">
-        <v>23700</v>
+        <v>25800</v>
       </c>
       <c r="G10" s="3">
-        <v>39300</v>
+        <v>24000</v>
       </c>
       <c r="H10" s="3">
-        <v>48000</v>
+        <v>39800</v>
       </c>
       <c r="I10" s="3">
-        <v>-8900</v>
+        <v>48600</v>
       </c>
       <c r="J10" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K10" s="3">
         <v>62500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>83000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3">
-        <v>3300</v>
-      </c>
       <c r="F14" s="3">
-        <v>51000</v>
+        <v>3400</v>
       </c>
       <c r="G14" s="3">
-        <v>-4600</v>
+        <v>51700</v>
       </c>
       <c r="H14" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1600</v>
       </c>
-      <c r="I14" s="3">
-        <v>26800</v>
-      </c>
       <c r="J14" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-4100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E15" s="3">
         <v>300</v>
       </c>
       <c r="F15" s="3">
+        <v>300</v>
+      </c>
+      <c r="G15" s="3">
         <v>500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>400</v>
       </c>
       <c r="H15" s="3">
         <v>500</v>
       </c>
       <c r="I15" s="3">
-        <v>27100</v>
+        <v>500</v>
       </c>
       <c r="J15" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K15" s="3">
         <v>26000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34600</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>62100</v>
+        <v>74800</v>
       </c>
       <c r="E17" s="3">
-        <v>101200</v>
+        <v>63000</v>
       </c>
       <c r="F17" s="3">
-        <v>176600</v>
+        <v>102500</v>
       </c>
       <c r="G17" s="3">
-        <v>105600</v>
+        <v>178900</v>
       </c>
       <c r="H17" s="3">
-        <v>116900</v>
+        <v>107000</v>
       </c>
       <c r="I17" s="3">
-        <v>156200</v>
+        <v>118400</v>
       </c>
       <c r="J17" s="3">
+        <v>158200</v>
+      </c>
+      <c r="K17" s="3">
         <v>97600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>122400</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2900</v>
+        <v>-9700</v>
       </c>
       <c r="E18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-65400</v>
-      </c>
       <c r="G18" s="3">
+        <v>-66300</v>
+      </c>
+      <c r="H18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-45100</v>
-      </c>
       <c r="J18" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K20" s="3">
         <v>6600</v>
       </c>
-      <c r="F20" s="3">
-        <v>-17600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-17700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>6600</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12400</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5800</v>
+        <v>28900</v>
       </c>
       <c r="E21" s="3">
-        <v>16400</v>
+        <v>5900</v>
       </c>
       <c r="F21" s="3">
-        <v>-66500</v>
+        <v>16600</v>
       </c>
       <c r="G21" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
-        <v>2900</v>
-      </c>
       <c r="I21" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>3100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-29800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8100</v>
+        <v>13000</v>
       </c>
       <c r="E22" s="3">
-        <v>7600</v>
+        <v>8200</v>
       </c>
       <c r="F22" s="3">
-        <v>12000</v>
+        <v>7700</v>
       </c>
       <c r="G22" s="3">
-        <v>7100</v>
+        <v>12200</v>
       </c>
       <c r="H22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>13500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15400</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-12900</v>
+        <v>-2800</v>
       </c>
       <c r="E23" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
-        <v>-95000</v>
-      </c>
       <c r="G23" s="3">
-        <v>-24700</v>
+        <v>-96300</v>
       </c>
       <c r="H23" s="3">
-        <v>-14300</v>
+        <v>-25000</v>
       </c>
       <c r="I23" s="3">
-        <v>-56000</v>
+        <v>-14500</v>
       </c>
       <c r="J23" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>700</v>
       </c>
       <c r="J24" s="3">
         <v>700</v>
       </c>
       <c r="K24" s="3">
+        <v>700</v>
+      </c>
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-14200</v>
+        <v>-3200</v>
       </c>
       <c r="E26" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-95300</v>
-      </c>
       <c r="G26" s="3">
-        <v>-26300</v>
+        <v>-96600</v>
       </c>
       <c r="H26" s="3">
-        <v>-13700</v>
+        <v>-26600</v>
       </c>
       <c r="I26" s="3">
-        <v>-56700</v>
+        <v>-13900</v>
       </c>
       <c r="J26" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-12600</v>
+        <v>-2300</v>
       </c>
       <c r="E27" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-95300</v>
-      </c>
       <c r="G27" s="3">
-        <v>-26300</v>
+        <v>-96600</v>
       </c>
       <c r="H27" s="3">
-        <v>-13700</v>
+        <v>-26600</v>
       </c>
       <c r="I27" s="3">
-        <v>-56700</v>
+        <v>-13900</v>
       </c>
       <c r="J27" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26100</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>17800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>18900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>17900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6600</v>
       </c>
-      <c r="F32" s="3">
-        <v>17600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>18600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>17700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>10200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12400</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-12600</v>
+        <v>-2300</v>
       </c>
       <c r="E33" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-95300</v>
-      </c>
       <c r="G33" s="3">
-        <v>-26300</v>
+        <v>-96600</v>
       </c>
       <c r="H33" s="3">
-        <v>-13700</v>
+        <v>-26600</v>
       </c>
       <c r="I33" s="3">
-        <v>-56700</v>
+        <v>-13900</v>
       </c>
       <c r="J33" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-12600</v>
+        <v>-2300</v>
       </c>
       <c r="E35" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-95300</v>
-      </c>
       <c r="G35" s="3">
-        <v>-26300</v>
+        <v>-96600</v>
       </c>
       <c r="H35" s="3">
-        <v>-13700</v>
+        <v>-26600</v>
       </c>
       <c r="I35" s="3">
-        <v>-56700</v>
+        <v>-13900</v>
       </c>
       <c r="J35" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20600</v>
+        <v>14300</v>
       </c>
       <c r="E41" s="3">
-        <v>26400</v>
+        <v>20800</v>
       </c>
       <c r="F41" s="3">
-        <v>76000</v>
+        <v>26700</v>
       </c>
       <c r="G41" s="3">
-        <v>35900</v>
+        <v>76800</v>
       </c>
       <c r="H41" s="3">
-        <v>130200</v>
+        <v>36300</v>
       </c>
       <c r="I41" s="3">
-        <v>176300</v>
+        <v>131600</v>
       </c>
       <c r="J41" s="3">
+        <v>178200</v>
+      </c>
+      <c r="K41" s="3">
         <v>6600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,143 +1708,158 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="E43" s="3">
-        <v>17100</v>
+        <v>10100</v>
       </c>
       <c r="F43" s="3">
-        <v>31200</v>
+        <v>17300</v>
       </c>
       <c r="G43" s="3">
-        <v>32800</v>
+        <v>31500</v>
       </c>
       <c r="H43" s="3">
-        <v>42700</v>
+        <v>33200</v>
       </c>
       <c r="I43" s="3">
-        <v>34600</v>
+        <v>43100</v>
       </c>
       <c r="J43" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K43" s="3">
         <v>33300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>800</v>
       </c>
       <c r="J44" s="3">
         <v>800</v>
       </c>
       <c r="K44" s="3">
+        <v>800</v>
+      </c>
+      <c r="L44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32200</v>
+        <v>29600</v>
       </c>
       <c r="E46" s="3">
-        <v>45300</v>
+        <v>32600</v>
       </c>
       <c r="F46" s="3">
-        <v>54600</v>
+        <v>45800</v>
       </c>
       <c r="G46" s="3">
-        <v>70900</v>
+        <v>55200</v>
       </c>
       <c r="H46" s="3">
-        <v>101900</v>
+        <v>71600</v>
       </c>
       <c r="I46" s="3">
-        <v>123800</v>
+        <v>103000</v>
       </c>
       <c r="J46" s="3">
+        <v>125100</v>
+      </c>
+      <c r="K46" s="3">
         <v>42100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>64500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>400</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
         <v>2100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>500</v>
       </c>
       <c r="H47" s="3">
         <v>500</v>
@@ -1764,74 +1868,83 @@
         <v>500</v>
       </c>
       <c r="J47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K47" s="3">
         <v>400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>400</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>101900</v>
+        <v>122100</v>
       </c>
       <c r="E48" s="3">
-        <v>106000</v>
+        <v>103000</v>
       </c>
       <c r="F48" s="3">
-        <v>212900</v>
+        <v>107100</v>
       </c>
       <c r="G48" s="3">
-        <v>169900</v>
+        <v>215200</v>
       </c>
       <c r="H48" s="3">
-        <v>312900</v>
+        <v>171700</v>
       </c>
       <c r="I48" s="3">
-        <v>259100</v>
+        <v>316300</v>
       </c>
       <c r="J48" s="3">
+        <v>261900</v>
+      </c>
+      <c r="K48" s="3">
         <v>175600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>155300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12200</v>
+        <v>16900</v>
       </c>
       <c r="E49" s="3">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="F49" s="3">
-        <v>19900</v>
+        <v>12100</v>
       </c>
       <c r="G49" s="3">
-        <v>10100</v>
+        <v>20200</v>
       </c>
       <c r="H49" s="3">
-        <v>11500</v>
+        <v>10200</v>
       </c>
       <c r="I49" s="3">
-        <v>8800</v>
+        <v>11600</v>
       </c>
       <c r="J49" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K49" s="3">
         <v>6100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7700</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3">
-        <v>4300</v>
-      </c>
       <c r="I52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>148200</v>
+        <v>171100</v>
       </c>
       <c r="E54" s="3">
-        <v>165800</v>
+        <v>149900</v>
       </c>
       <c r="F54" s="3">
-        <v>173600</v>
+        <v>167600</v>
       </c>
       <c r="G54" s="3">
-        <v>252300</v>
+        <v>175500</v>
       </c>
       <c r="H54" s="3">
-        <v>268100</v>
+        <v>255000</v>
       </c>
       <c r="I54" s="3">
-        <v>259200</v>
+        <v>271100</v>
       </c>
       <c r="J54" s="3">
+        <v>262100</v>
+      </c>
+      <c r="K54" s="3">
         <v>225400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>279700</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9700</v>
+        <v>24000</v>
       </c>
       <c r="E57" s="3">
-        <v>14300</v>
+        <v>9800</v>
       </c>
       <c r="F57" s="3">
-        <v>18200</v>
+        <v>14500</v>
       </c>
       <c r="G57" s="3">
-        <v>16500</v>
+        <v>18400</v>
       </c>
       <c r="H57" s="3">
-        <v>27100</v>
+        <v>16700</v>
       </c>
       <c r="I57" s="3">
-        <v>12000</v>
+        <v>27400</v>
       </c>
       <c r="J57" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K57" s="3">
         <v>18300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1700</v>
+        <v>5800</v>
       </c>
       <c r="E58" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F58" s="3">
         <v>1700</v>
       </c>
       <c r="G58" s="3">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
       </c>
       <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4200</v>
+        <v>3700</v>
       </c>
       <c r="E59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F59" s="3">
         <v>5000</v>
       </c>
-      <c r="F59" s="3">
-        <v>2800</v>
-      </c>
       <c r="G59" s="3">
-        <v>5600</v>
+        <v>2900</v>
       </c>
       <c r="H59" s="3">
-        <v>2600</v>
+        <v>5700</v>
       </c>
       <c r="I59" s="3">
-        <v>8800</v>
+        <v>2700</v>
       </c>
       <c r="J59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15700</v>
+        <v>33400</v>
       </c>
       <c r="E60" s="3">
-        <v>20900</v>
+        <v>15900</v>
       </c>
       <c r="F60" s="3">
-        <v>21300</v>
+        <v>21200</v>
       </c>
       <c r="G60" s="3">
-        <v>22400</v>
+        <v>21500</v>
       </c>
       <c r="H60" s="3">
-        <v>29200</v>
+        <v>22600</v>
       </c>
       <c r="I60" s="3">
-        <v>21300</v>
+        <v>29500</v>
       </c>
       <c r="J60" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K60" s="3">
         <v>21600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>97400</v>
+        <v>64600</v>
       </c>
       <c r="E61" s="3">
-        <v>96600</v>
+        <v>98400</v>
       </c>
       <c r="F61" s="3">
-        <v>111000</v>
+        <v>97700</v>
       </c>
       <c r="G61" s="3">
-        <v>99800</v>
+        <v>112200</v>
       </c>
       <c r="H61" s="3">
-        <v>100100</v>
+        <v>100900</v>
       </c>
       <c r="I61" s="3">
-        <v>86300</v>
+        <v>101200</v>
       </c>
       <c r="J61" s="3">
+        <v>87200</v>
+      </c>
+      <c r="K61" s="3">
         <v>103200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>142300</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
-        <v>2100</v>
-      </c>
       <c r="F62" s="3">
-        <v>6800</v>
+        <v>2200</v>
       </c>
       <c r="G62" s="3">
-        <v>3800</v>
+        <v>6900</v>
       </c>
       <c r="H62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I62" s="3">
         <v>6900</v>
       </c>
-      <c r="I62" s="3">
-        <v>9300</v>
-      </c>
       <c r="J62" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>117600</v>
+        <v>109200</v>
       </c>
       <c r="E66" s="3">
-        <v>124100</v>
+        <v>118900</v>
       </c>
       <c r="F66" s="3">
-        <v>138000</v>
+        <v>125400</v>
       </c>
       <c r="G66" s="3">
-        <v>126000</v>
+        <v>139500</v>
       </c>
       <c r="H66" s="3">
-        <v>135500</v>
+        <v>127400</v>
       </c>
       <c r="I66" s="3">
-        <v>116900</v>
+        <v>136900</v>
       </c>
       <c r="J66" s="3">
+        <v>118200</v>
+      </c>
+      <c r="K66" s="3">
         <v>127800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>160900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-40500</v>
+        <v>-25900</v>
       </c>
       <c r="E72" s="3">
-        <v>-26100</v>
+        <v>-40900</v>
       </c>
       <c r="F72" s="3">
-        <v>-624300</v>
+        <v>-26400</v>
       </c>
       <c r="G72" s="3">
-        <v>-216500</v>
+        <v>-631100</v>
       </c>
       <c r="H72" s="3">
-        <v>-190300</v>
+        <v>-218900</v>
       </c>
       <c r="I72" s="3">
-        <v>-232900</v>
+        <v>-192400</v>
       </c>
       <c r="J72" s="3">
+        <v>-235400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-119700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-172400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30700</v>
+        <v>61900</v>
       </c>
       <c r="E76" s="3">
-        <v>41700</v>
+        <v>31000</v>
       </c>
       <c r="F76" s="3">
-        <v>35700</v>
+        <v>42100</v>
       </c>
       <c r="G76" s="3">
-        <v>126300</v>
+        <v>36000</v>
       </c>
       <c r="H76" s="3">
-        <v>132700</v>
+        <v>127700</v>
       </c>
       <c r="I76" s="3">
-        <v>142300</v>
+        <v>134100</v>
       </c>
       <c r="J76" s="3">
+        <v>143900</v>
+      </c>
+      <c r="K76" s="3">
         <v>97700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>118800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-12600</v>
+        <v>-2300</v>
       </c>
       <c r="E81" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-95300</v>
-      </c>
       <c r="G81" s="3">
-        <v>-26300</v>
+        <v>-96600</v>
       </c>
       <c r="H81" s="3">
-        <v>-13700</v>
+        <v>-26600</v>
       </c>
       <c r="I81" s="3">
-        <v>-56700</v>
+        <v>-13900</v>
       </c>
       <c r="J81" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10700</v>
+        <v>18700</v>
       </c>
       <c r="E83" s="3">
-        <v>9500</v>
+        <v>10800</v>
       </c>
       <c r="F83" s="3">
-        <v>16500</v>
+        <v>9600</v>
       </c>
       <c r="G83" s="3">
-        <v>16000</v>
+        <v>16700</v>
       </c>
       <c r="H83" s="3">
-        <v>16600</v>
+        <v>16200</v>
       </c>
       <c r="I83" s="3">
-        <v>25800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>16800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>26200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2300</v>
+        <v>17900</v>
       </c>
       <c r="E89" s="3">
         <v>2300</v>
       </c>
       <c r="F89" s="3">
-        <v>20000</v>
+        <v>2400</v>
       </c>
       <c r="G89" s="3">
+        <v>20300</v>
+      </c>
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="H89" s="3">
-        <v>23200</v>
-      </c>
       <c r="I89" s="3">
-        <v>7600</v>
+        <v>23500</v>
       </c>
       <c r="J89" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K89" s="3">
         <v>34800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9200</v>
+        <v>-9700</v>
       </c>
       <c r="E91" s="3">
-        <v>-10900</v>
+        <v>-9300</v>
       </c>
       <c r="F91" s="3">
-        <v>-21500</v>
+        <v>-11100</v>
       </c>
       <c r="G91" s="3">
-        <v>-36000</v>
+        <v>-21800</v>
       </c>
       <c r="H91" s="3">
-        <v>-42100</v>
+        <v>-36500</v>
       </c>
       <c r="I91" s="3">
-        <v>-17400</v>
+        <v>-42700</v>
       </c>
       <c r="J91" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-26300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
-        <v>-9100</v>
-      </c>
       <c r="F94" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="G94" s="3">
-        <v>-33200</v>
+        <v>-9200</v>
       </c>
       <c r="H94" s="3">
-        <v>-42100</v>
+        <v>-33600</v>
       </c>
       <c r="I94" s="3">
-        <v>-17300</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-42600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-17500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8400</v>
+        <v>-17100</v>
       </c>
       <c r="E100" s="3">
-        <v>-4200</v>
+        <v>-8500</v>
       </c>
       <c r="F100" s="3">
-        <v>-10700</v>
+        <v>-4300</v>
       </c>
       <c r="G100" s="3">
-        <v>2800</v>
+        <v>-10800</v>
       </c>
       <c r="H100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I100" s="3">
         <v>-5300</v>
       </c>
-      <c r="I100" s="3">
-        <v>90900</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+      <c r="J100" s="3">
+        <v>92100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
-        <v>1600</v>
-      </c>
       <c r="G101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5800</v>
+        <v>-6600</v>
       </c>
       <c r="E102" s="3">
-        <v>-11400</v>
+        <v>-5900</v>
       </c>
       <c r="F102" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3">
-        <v>-29200</v>
-      </c>
       <c r="H102" s="3">
-        <v>-23000</v>
+        <v>-29500</v>
       </c>
       <c r="I102" s="3">
-        <v>81300</v>
+        <v>-23300</v>
       </c>
       <c r="J102" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-11300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-31700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MXMTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MXMTY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>65100</v>
+        <v>71300</v>
       </c>
       <c r="E8" s="3">
-        <v>60000</v>
+        <v>65700</v>
       </c>
       <c r="F8" s="3">
-        <v>102900</v>
+        <v>112600</v>
       </c>
       <c r="G8" s="3">
-        <v>112600</v>
+        <v>123300</v>
       </c>
       <c r="H8" s="3">
-        <v>108000</v>
+        <v>118300</v>
       </c>
       <c r="I8" s="3">
-        <v>122700</v>
+        <v>134300</v>
       </c>
       <c r="J8" s="3">
-        <v>112500</v>
+        <v>123200</v>
       </c>
       <c r="K8" s="3">
         <v>99100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>55800</v>
+        <v>61100</v>
       </c>
       <c r="E9" s="3">
-        <v>37700</v>
+        <v>41300</v>
       </c>
       <c r="F9" s="3">
-        <v>77000</v>
+        <v>84300</v>
       </c>
       <c r="G9" s="3">
-        <v>88600</v>
+        <v>97000</v>
       </c>
       <c r="H9" s="3">
-        <v>68200</v>
+        <v>74600</v>
       </c>
       <c r="I9" s="3">
-        <v>74100</v>
+        <v>81100</v>
       </c>
       <c r="J9" s="3">
-        <v>121600</v>
+        <v>133100</v>
       </c>
       <c r="K9" s="3">
         <v>36600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9300</v>
+        <v>10200</v>
       </c>
       <c r="E10" s="3">
-        <v>22300</v>
+        <v>24400</v>
       </c>
       <c r="F10" s="3">
-        <v>25800</v>
+        <v>28300</v>
       </c>
       <c r="G10" s="3">
-        <v>24000</v>
+        <v>26300</v>
       </c>
       <c r="H10" s="3">
-        <v>39800</v>
+        <v>43600</v>
       </c>
       <c r="I10" s="3">
-        <v>48600</v>
+        <v>53200</v>
       </c>
       <c r="J10" s="3">
-        <v>-9000</v>
+        <v>-9900</v>
       </c>
       <c r="K10" s="3">
         <v>62500</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F14" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="G14" s="3">
-        <v>51700</v>
+        <v>56600</v>
       </c>
       <c r="H14" s="3">
-        <v>-4700</v>
+        <v>-5100</v>
       </c>
       <c r="I14" s="3">
-        <v>-1600</v>
+        <v>-1800</v>
       </c>
       <c r="J14" s="3">
-        <v>27200</v>
+        <v>29700</v>
       </c>
       <c r="K14" s="3">
         <v>-4100</v>
@@ -933,7 +933,7 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
@@ -945,10 +945,10 @@
         <v>500</v>
       </c>
       <c r="I15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J15" s="3">
-        <v>27400</v>
+        <v>30000</v>
       </c>
       <c r="K15" s="3">
         <v>26000</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>74800</v>
+        <v>82000</v>
       </c>
       <c r="E17" s="3">
-        <v>63000</v>
+        <v>68900</v>
       </c>
       <c r="F17" s="3">
-        <v>102500</v>
+        <v>112200</v>
       </c>
       <c r="G17" s="3">
-        <v>178900</v>
+        <v>195900</v>
       </c>
       <c r="H17" s="3">
-        <v>107000</v>
+        <v>117100</v>
       </c>
       <c r="I17" s="3">
-        <v>118400</v>
+        <v>129700</v>
       </c>
       <c r="J17" s="3">
-        <v>158200</v>
+        <v>173300</v>
       </c>
       <c r="K17" s="3">
         <v>97600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-9700</v>
+        <v>-10700</v>
       </c>
       <c r="E18" s="3">
-        <v>-3000</v>
+        <v>-3300</v>
       </c>
       <c r="F18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G18" s="3">
-        <v>-66300</v>
+        <v>-72600</v>
       </c>
       <c r="H18" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I18" s="3">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="J18" s="3">
-        <v>-45700</v>
+        <v>-50100</v>
       </c>
       <c r="K18" s="3">
         <v>1500</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>20000</v>
+        <v>21900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="F20" s="3">
-        <v>6700</v>
+        <v>7300</v>
       </c>
       <c r="G20" s="3">
-        <v>-17800</v>
+        <v>-19500</v>
       </c>
       <c r="H20" s="3">
-        <v>-18900</v>
+        <v>-20600</v>
       </c>
       <c r="I20" s="3">
-        <v>-17900</v>
+        <v>-19700</v>
       </c>
       <c r="J20" s="3">
-        <v>-10300</v>
+        <v>-11300</v>
       </c>
       <c r="K20" s="3">
         <v>6600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>28900</v>
+        <v>31600</v>
       </c>
       <c r="E21" s="3">
-        <v>5900</v>
+        <v>6500</v>
       </c>
       <c r="F21" s="3">
-        <v>16600</v>
+        <v>18200</v>
       </c>
       <c r="G21" s="3">
-        <v>-67300</v>
+        <v>-73700</v>
       </c>
       <c r="H21" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="I21" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="J21" s="3">
-        <v>-29800</v>
+        <v>-32700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13000</v>
+        <v>14300</v>
       </c>
       <c r="E22" s="3">
-        <v>8200</v>
+        <v>8900</v>
       </c>
       <c r="F22" s="3">
-        <v>7700</v>
+        <v>8400</v>
       </c>
       <c r="G22" s="3">
-        <v>12200</v>
+        <v>13400</v>
       </c>
       <c r="H22" s="3">
-        <v>7200</v>
+        <v>7900</v>
       </c>
       <c r="I22" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J22" s="3">
         <v>800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2800</v>
+        <v>-3100</v>
       </c>
       <c r="E23" s="3">
-        <v>-13100</v>
+        <v>-14300</v>
       </c>
       <c r="F23" s="3">
         <v>-700</v>
       </c>
       <c r="G23" s="3">
-        <v>-96300</v>
+        <v>-105400</v>
       </c>
       <c r="H23" s="3">
-        <v>-25000</v>
+        <v>-27400</v>
       </c>
       <c r="I23" s="3">
-        <v>-14500</v>
+        <v>-15900</v>
       </c>
       <c r="J23" s="3">
-        <v>-56800</v>
+        <v>-62200</v>
       </c>
       <c r="K23" s="3">
         <v>-5400</v>
@@ -1191,7 +1191,7 @@
         <v>400</v>
       </c>
       <c r="E24" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1200,13 +1200,13 @@
         <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="I24" s="3">
         <v>-600</v>
       </c>
       <c r="J24" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K24" s="3">
         <v>700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3200</v>
+        <v>-3500</v>
       </c>
       <c r="E26" s="3">
-        <v>-14400</v>
+        <v>-15700</v>
       </c>
       <c r="F26" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G26" s="3">
-        <v>-96600</v>
+        <v>-105800</v>
       </c>
       <c r="H26" s="3">
-        <v>-26600</v>
+        <v>-29200</v>
       </c>
       <c r="I26" s="3">
-        <v>-13900</v>
+        <v>-15200</v>
       </c>
       <c r="J26" s="3">
-        <v>-57500</v>
+        <v>-62900</v>
       </c>
       <c r="K26" s="3">
         <v>-6100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2300</v>
+        <v>-2600</v>
       </c>
       <c r="E27" s="3">
-        <v>-12800</v>
+        <v>-14000</v>
       </c>
       <c r="F27" s="3">
         <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>-96600</v>
+        <v>-105800</v>
       </c>
       <c r="H27" s="3">
-        <v>-26600</v>
+        <v>-29200</v>
       </c>
       <c r="I27" s="3">
-        <v>-13900</v>
+        <v>-15200</v>
       </c>
       <c r="J27" s="3">
-        <v>-57500</v>
+        <v>-62900</v>
       </c>
       <c r="K27" s="3">
         <v>-6100</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20000</v>
+        <v>-21900</v>
       </c>
       <c r="E32" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="F32" s="3">
-        <v>-6700</v>
+        <v>-7300</v>
       </c>
       <c r="G32" s="3">
-        <v>17800</v>
+        <v>19500</v>
       </c>
       <c r="H32" s="3">
-        <v>18900</v>
+        <v>20600</v>
       </c>
       <c r="I32" s="3">
-        <v>17900</v>
+        <v>19700</v>
       </c>
       <c r="J32" s="3">
-        <v>10300</v>
+        <v>11300</v>
       </c>
       <c r="K32" s="3">
         <v>-6600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2300</v>
+        <v>-2600</v>
       </c>
       <c r="E33" s="3">
-        <v>-12800</v>
+        <v>-14000</v>
       </c>
       <c r="F33" s="3">
         <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>-96600</v>
+        <v>-105800</v>
       </c>
       <c r="H33" s="3">
-        <v>-26600</v>
+        <v>-29200</v>
       </c>
       <c r="I33" s="3">
-        <v>-13900</v>
+        <v>-15200</v>
       </c>
       <c r="J33" s="3">
-        <v>-57500</v>
+        <v>-62900</v>
       </c>
       <c r="K33" s="3">
         <v>-6100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2300</v>
+        <v>-2600</v>
       </c>
       <c r="E35" s="3">
-        <v>-12800</v>
+        <v>-14000</v>
       </c>
       <c r="F35" s="3">
         <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>-96600</v>
+        <v>-105800</v>
       </c>
       <c r="H35" s="3">
-        <v>-26600</v>
+        <v>-29200</v>
       </c>
       <c r="I35" s="3">
-        <v>-13900</v>
+        <v>-15200</v>
       </c>
       <c r="J35" s="3">
-        <v>-57500</v>
+        <v>-62900</v>
       </c>
       <c r="K35" s="3">
         <v>-6100</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14300</v>
+        <v>15600</v>
       </c>
       <c r="E41" s="3">
-        <v>20800</v>
+        <v>22800</v>
       </c>
       <c r="F41" s="3">
-        <v>26700</v>
+        <v>29200</v>
       </c>
       <c r="G41" s="3">
-        <v>76800</v>
+        <v>84100</v>
       </c>
       <c r="H41" s="3">
-        <v>36300</v>
+        <v>39700</v>
       </c>
       <c r="I41" s="3">
-        <v>131600</v>
+        <v>144100</v>
       </c>
       <c r="J41" s="3">
-        <v>178200</v>
+        <v>195100</v>
       </c>
       <c r="K41" s="3">
         <v>6600</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14000</v>
+        <v>15300</v>
       </c>
       <c r="E43" s="3">
-        <v>10100</v>
+        <v>11100</v>
       </c>
       <c r="F43" s="3">
-        <v>17300</v>
+        <v>18900</v>
       </c>
       <c r="G43" s="3">
-        <v>31500</v>
+        <v>34500</v>
       </c>
       <c r="H43" s="3">
-        <v>33200</v>
+        <v>36300</v>
       </c>
       <c r="I43" s="3">
-        <v>43100</v>
+        <v>47200</v>
       </c>
       <c r="J43" s="3">
-        <v>34900</v>
+        <v>38200</v>
       </c>
       <c r="K43" s="3">
         <v>33300</v>
@@ -1763,10 +1763,10 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="I44" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J44" s="3">
         <v>800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G45" s="3">
         <v>1300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1200</v>
       </c>
       <c r="H45" s="3">
         <v>900</v>
       </c>
       <c r="I45" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>1500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29600</v>
+        <v>32400</v>
       </c>
       <c r="E46" s="3">
-        <v>32600</v>
+        <v>35700</v>
       </c>
       <c r="F46" s="3">
-        <v>45800</v>
+        <v>50200</v>
       </c>
       <c r="G46" s="3">
-        <v>55200</v>
+        <v>60400</v>
       </c>
       <c r="H46" s="3">
-        <v>71600</v>
+        <v>78400</v>
       </c>
       <c r="I46" s="3">
-        <v>103000</v>
+        <v>112800</v>
       </c>
       <c r="J46" s="3">
-        <v>125100</v>
+        <v>137000</v>
       </c>
       <c r="K46" s="3">
         <v>42100</v>
@@ -1850,7 +1850,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -1859,7 +1859,7 @@
         <v>8</v>
       </c>
       <c r="G47" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="H47" s="3">
         <v>500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>122100</v>
+        <v>133700</v>
       </c>
       <c r="E48" s="3">
-        <v>103000</v>
+        <v>112800</v>
       </c>
       <c r="F48" s="3">
-        <v>107100</v>
+        <v>117300</v>
       </c>
       <c r="G48" s="3">
-        <v>215200</v>
+        <v>235600</v>
       </c>
       <c r="H48" s="3">
-        <v>171700</v>
+        <v>188000</v>
       </c>
       <c r="I48" s="3">
-        <v>316300</v>
+        <v>346300</v>
       </c>
       <c r="J48" s="3">
-        <v>261900</v>
+        <v>286800</v>
       </c>
       <c r="K48" s="3">
         <v>175600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16900</v>
+        <v>18500</v>
       </c>
       <c r="E49" s="3">
-        <v>12400</v>
+        <v>13500</v>
       </c>
       <c r="F49" s="3">
-        <v>12100</v>
+        <v>13200</v>
       </c>
       <c r="G49" s="3">
-        <v>20200</v>
+        <v>22100</v>
       </c>
       <c r="H49" s="3">
-        <v>10200</v>
+        <v>11100</v>
       </c>
       <c r="I49" s="3">
-        <v>11600</v>
+        <v>12700</v>
       </c>
       <c r="J49" s="3">
-        <v>8900</v>
+        <v>9800</v>
       </c>
       <c r="K49" s="3">
         <v>6100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
-        <v>1900</v>
-      </c>
       <c r="F52" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G52" s="3">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="H52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I52" s="3">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="J52" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K52" s="3">
         <v>1200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>171100</v>
+        <v>187400</v>
       </c>
       <c r="E54" s="3">
-        <v>149900</v>
+        <v>164100</v>
       </c>
       <c r="F54" s="3">
-        <v>167600</v>
+        <v>183500</v>
       </c>
       <c r="G54" s="3">
-        <v>175500</v>
+        <v>192200</v>
       </c>
       <c r="H54" s="3">
-        <v>255000</v>
+        <v>279200</v>
       </c>
       <c r="I54" s="3">
-        <v>271100</v>
+        <v>296800</v>
       </c>
       <c r="J54" s="3">
-        <v>262100</v>
+        <v>286900</v>
       </c>
       <c r="K54" s="3">
         <v>225400</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24000</v>
+        <v>26300</v>
       </c>
       <c r="E57" s="3">
-        <v>9800</v>
+        <v>10800</v>
       </c>
       <c r="F57" s="3">
-        <v>14500</v>
+        <v>15900</v>
       </c>
       <c r="G57" s="3">
-        <v>18400</v>
+        <v>20200</v>
       </c>
       <c r="H57" s="3">
-        <v>16700</v>
+        <v>18200</v>
       </c>
       <c r="I57" s="3">
-        <v>27400</v>
+        <v>30000</v>
       </c>
       <c r="J57" s="3">
-        <v>12200</v>
+        <v>13300</v>
       </c>
       <c r="K57" s="3">
         <v>18300</v>
@@ -2177,22 +2177,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5800</v>
+        <v>6300</v>
       </c>
       <c r="E58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
-        <v>1700</v>
-      </c>
       <c r="G58" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="E59" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="F59" s="3">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2700</v>
-      </c>
       <c r="J59" s="3">
-        <v>8900</v>
+        <v>9700</v>
       </c>
       <c r="K59" s="3">
         <v>3100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33400</v>
+        <v>36600</v>
       </c>
       <c r="E60" s="3">
-        <v>15900</v>
+        <v>17400</v>
       </c>
       <c r="F60" s="3">
-        <v>21200</v>
+        <v>23200</v>
       </c>
       <c r="G60" s="3">
-        <v>21500</v>
+        <v>23600</v>
       </c>
       <c r="H60" s="3">
-        <v>22600</v>
+        <v>24700</v>
       </c>
       <c r="I60" s="3">
-        <v>29500</v>
+        <v>32300</v>
       </c>
       <c r="J60" s="3">
-        <v>21500</v>
+        <v>23500</v>
       </c>
       <c r="K60" s="3">
         <v>21600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>64600</v>
+        <v>70800</v>
       </c>
       <c r="E61" s="3">
-        <v>98400</v>
+        <v>107800</v>
       </c>
       <c r="F61" s="3">
-        <v>97700</v>
+        <v>106900</v>
       </c>
       <c r="G61" s="3">
-        <v>112200</v>
+        <v>122800</v>
       </c>
       <c r="H61" s="3">
-        <v>100900</v>
+        <v>110500</v>
       </c>
       <c r="I61" s="3">
-        <v>101200</v>
+        <v>110800</v>
       </c>
       <c r="J61" s="3">
-        <v>87200</v>
+        <v>95500</v>
       </c>
       <c r="K61" s="3">
         <v>103200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11100</v>
+        <v>12200</v>
       </c>
       <c r="E62" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F62" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="G62" s="3">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="H62" s="3">
-        <v>3900</v>
+        <v>4200</v>
       </c>
       <c r="I62" s="3">
-        <v>6900</v>
+        <v>7600</v>
       </c>
       <c r="J62" s="3">
-        <v>9400</v>
+        <v>10300</v>
       </c>
       <c r="K62" s="3">
         <v>2900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>109200</v>
+        <v>119500</v>
       </c>
       <c r="E66" s="3">
-        <v>118900</v>
+        <v>130200</v>
       </c>
       <c r="F66" s="3">
-        <v>125400</v>
+        <v>137300</v>
       </c>
       <c r="G66" s="3">
+        <v>152700</v>
+      </c>
+      <c r="H66" s="3">
         <v>139500</v>
       </c>
-      <c r="H66" s="3">
-        <v>127400</v>
-      </c>
       <c r="I66" s="3">
-        <v>136900</v>
+        <v>149900</v>
       </c>
       <c r="J66" s="3">
-        <v>118200</v>
+        <v>129400</v>
       </c>
       <c r="K66" s="3">
         <v>127800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-25900</v>
+        <v>-28400</v>
       </c>
       <c r="E72" s="3">
-        <v>-40900</v>
+        <v>-44800</v>
       </c>
       <c r="F72" s="3">
-        <v>-26400</v>
+        <v>-28900</v>
       </c>
       <c r="G72" s="3">
-        <v>-631100</v>
+        <v>-691000</v>
       </c>
       <c r="H72" s="3">
-        <v>-218900</v>
+        <v>-239700</v>
       </c>
       <c r="I72" s="3">
-        <v>-192400</v>
+        <v>-210600</v>
       </c>
       <c r="J72" s="3">
-        <v>-235400</v>
+        <v>-257800</v>
       </c>
       <c r="K72" s="3">
         <v>-119700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>61900</v>
+        <v>67800</v>
       </c>
       <c r="E76" s="3">
-        <v>31000</v>
+        <v>33900</v>
       </c>
       <c r="F76" s="3">
-        <v>42100</v>
+        <v>46100</v>
       </c>
       <c r="G76" s="3">
-        <v>36000</v>
+        <v>39500</v>
       </c>
       <c r="H76" s="3">
-        <v>127700</v>
+        <v>139800</v>
       </c>
       <c r="I76" s="3">
-        <v>134100</v>
+        <v>146900</v>
       </c>
       <c r="J76" s="3">
-        <v>143900</v>
+        <v>157600</v>
       </c>
       <c r="K76" s="3">
         <v>97700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2300</v>
+        <v>-2600</v>
       </c>
       <c r="E81" s="3">
-        <v>-12800</v>
+        <v>-14000</v>
       </c>
       <c r="F81" s="3">
         <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>-96600</v>
+        <v>-105800</v>
       </c>
       <c r="H81" s="3">
-        <v>-26600</v>
+        <v>-29200</v>
       </c>
       <c r="I81" s="3">
-        <v>-13900</v>
+        <v>-15200</v>
       </c>
       <c r="J81" s="3">
-        <v>-57500</v>
+        <v>-62900</v>
       </c>
       <c r="K81" s="3">
         <v>-6100</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>18700</v>
+        <v>20400</v>
       </c>
       <c r="E83" s="3">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="F83" s="3">
-        <v>9600</v>
+        <v>10500</v>
       </c>
       <c r="G83" s="3">
-        <v>16700</v>
+        <v>18300</v>
       </c>
       <c r="H83" s="3">
-        <v>16200</v>
+        <v>17800</v>
       </c>
       <c r="I83" s="3">
-        <v>16800</v>
+        <v>18400</v>
       </c>
       <c r="J83" s="3">
-        <v>26200</v>
+        <v>28700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>17900</v>
+        <v>19600</v>
       </c>
       <c r="E89" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="F89" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G89" s="3">
-        <v>20300</v>
+        <v>22200</v>
       </c>
       <c r="H89" s="3">
-        <v>-2800</v>
+        <v>-3100</v>
       </c>
       <c r="I89" s="3">
-        <v>23500</v>
+        <v>25800</v>
       </c>
       <c r="J89" s="3">
-        <v>7700</v>
+        <v>8500</v>
       </c>
       <c r="K89" s="3">
         <v>34800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9700</v>
+        <v>-10600</v>
       </c>
       <c r="E91" s="3">
-        <v>-9300</v>
+        <v>-10200</v>
       </c>
       <c r="F91" s="3">
-        <v>-11100</v>
+        <v>-12100</v>
       </c>
       <c r="G91" s="3">
-        <v>-21800</v>
+        <v>-23900</v>
       </c>
       <c r="H91" s="3">
-        <v>-36500</v>
+        <v>-39900</v>
       </c>
       <c r="I91" s="3">
-        <v>-42700</v>
+        <v>-46700</v>
       </c>
       <c r="J91" s="3">
-        <v>-17600</v>
+        <v>-19300</v>
       </c>
       <c r="K91" s="3">
         <v>-26300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8200</v>
+        <v>-9000</v>
       </c>
       <c r="E94" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F94" s="3">
-        <v>-9200</v>
+        <v>-10100</v>
       </c>
       <c r="G94" s="3">
-        <v>-9200</v>
+        <v>-10000</v>
       </c>
       <c r="H94" s="3">
-        <v>-33600</v>
+        <v>-36800</v>
       </c>
       <c r="I94" s="3">
-        <v>-42600</v>
+        <v>-46700</v>
       </c>
       <c r="J94" s="3">
-        <v>-17500</v>
+        <v>-19200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17100</v>
+        <v>-18700</v>
       </c>
       <c r="E100" s="3">
-        <v>-8500</v>
+        <v>-9300</v>
       </c>
       <c r="F100" s="3">
-        <v>-4300</v>
+        <v>-4700</v>
       </c>
       <c r="G100" s="3">
-        <v>-10800</v>
+        <v>-11800</v>
       </c>
       <c r="H100" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="I100" s="3">
-        <v>-5300</v>
+        <v>-5800</v>
       </c>
       <c r="J100" s="3">
-        <v>92100</v>
+        <v>100800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>-400</v>
       </c>
       <c r="G101" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H101" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="I101" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="J101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6600</v>
+        <v>-7200</v>
       </c>
       <c r="E102" s="3">
-        <v>-5900</v>
+        <v>-6400</v>
       </c>
       <c r="F102" s="3">
-        <v>-11500</v>
+        <v>-12600</v>
       </c>
       <c r="G102" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="H102" s="3">
-        <v>-29500</v>
+        <v>-32300</v>
       </c>
       <c r="I102" s="3">
-        <v>-23300</v>
+        <v>-25500</v>
       </c>
       <c r="J102" s="3">
-        <v>82400</v>
+        <v>90200</v>
       </c>
       <c r="K102" s="3">
         <v>-11300</v>

--- a/AAII_Financials/Yearly/MXMTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MXMTY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>MXMTY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>71300</v>
+        <v>69100</v>
       </c>
       <c r="E8" s="3">
-        <v>65700</v>
+        <v>63600</v>
       </c>
       <c r="F8" s="3">
-        <v>112600</v>
+        <v>109100</v>
       </c>
       <c r="G8" s="3">
-        <v>123300</v>
+        <v>119400</v>
       </c>
       <c r="H8" s="3">
-        <v>118300</v>
+        <v>114600</v>
       </c>
       <c r="I8" s="3">
-        <v>134300</v>
+        <v>130100</v>
       </c>
       <c r="J8" s="3">
-        <v>123200</v>
+        <v>119400</v>
       </c>
       <c r="K8" s="3">
         <v>99100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>61100</v>
+        <v>59200</v>
       </c>
       <c r="E9" s="3">
-        <v>41300</v>
+        <v>40000</v>
       </c>
       <c r="F9" s="3">
-        <v>84300</v>
+        <v>81700</v>
       </c>
       <c r="G9" s="3">
-        <v>97000</v>
+        <v>94000</v>
       </c>
       <c r="H9" s="3">
-        <v>74600</v>
+        <v>72300</v>
       </c>
       <c r="I9" s="3">
-        <v>81100</v>
+        <v>78600</v>
       </c>
       <c r="J9" s="3">
-        <v>133100</v>
+        <v>128900</v>
       </c>
       <c r="K9" s="3">
         <v>36600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="E10" s="3">
-        <v>24400</v>
+        <v>23600</v>
       </c>
       <c r="F10" s="3">
-        <v>28300</v>
+        <v>27400</v>
       </c>
       <c r="G10" s="3">
-        <v>26300</v>
+        <v>25400</v>
       </c>
       <c r="H10" s="3">
-        <v>43600</v>
+        <v>42300</v>
       </c>
       <c r="I10" s="3">
-        <v>53200</v>
+        <v>51600</v>
       </c>
       <c r="J10" s="3">
-        <v>-9900</v>
+        <v>-9600</v>
       </c>
       <c r="K10" s="3">
         <v>62500</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E14" s="3">
         <v>1300</v>
       </c>
       <c r="F14" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G14" s="3">
-        <v>56600</v>
+        <v>54800</v>
       </c>
       <c r="H14" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="I14" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J14" s="3">
-        <v>29700</v>
+        <v>28800</v>
       </c>
       <c r="K14" s="3">
         <v>-4100</v>
@@ -933,7 +933,7 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
@@ -945,10 +945,10 @@
         <v>500</v>
       </c>
       <c r="I15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J15" s="3">
-        <v>30000</v>
+        <v>29100</v>
       </c>
       <c r="K15" s="3">
         <v>26000</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>82000</v>
+        <v>79400</v>
       </c>
       <c r="E17" s="3">
-        <v>68900</v>
+        <v>66800</v>
       </c>
       <c r="F17" s="3">
-        <v>112200</v>
+        <v>108700</v>
       </c>
       <c r="G17" s="3">
-        <v>195900</v>
+        <v>189700</v>
       </c>
       <c r="H17" s="3">
-        <v>117100</v>
+        <v>113500</v>
       </c>
       <c r="I17" s="3">
-        <v>129700</v>
+        <v>125600</v>
       </c>
       <c r="J17" s="3">
-        <v>173300</v>
+        <v>167900</v>
       </c>
       <c r="K17" s="3">
         <v>97600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-10700</v>
+        <v>-10300</v>
       </c>
       <c r="E18" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="F18" s="3">
         <v>400</v>
       </c>
       <c r="G18" s="3">
-        <v>-72600</v>
+        <v>-70300</v>
       </c>
       <c r="H18" s="3">
         <v>1100</v>
       </c>
       <c r="I18" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="J18" s="3">
-        <v>-50100</v>
+        <v>-48500</v>
       </c>
       <c r="K18" s="3">
         <v>1500</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="E20" s="3">
         <v>-2100</v>
       </c>
       <c r="F20" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="G20" s="3">
-        <v>-19500</v>
+        <v>-18900</v>
       </c>
       <c r="H20" s="3">
-        <v>-20600</v>
+        <v>-20000</v>
       </c>
       <c r="I20" s="3">
-        <v>-19700</v>
+        <v>-19000</v>
       </c>
       <c r="J20" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="K20" s="3">
         <v>6600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>31600</v>
+        <v>30400</v>
       </c>
       <c r="E21" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="F21" s="3">
-        <v>18200</v>
+        <v>17500</v>
       </c>
       <c r="G21" s="3">
-        <v>-73700</v>
+        <v>-71700</v>
       </c>
       <c r="H21" s="3">
-        <v>-1700</v>
+        <v>-1900</v>
       </c>
       <c r="I21" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-32700</v>
+        <v>3000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,19 +1122,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14300</v>
+        <v>13800</v>
       </c>
       <c r="E22" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="F22" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="G22" s="3">
-        <v>13400</v>
+        <v>12900</v>
       </c>
       <c r="H22" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="I22" s="3">
         <v>800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="E23" s="3">
-        <v>-14300</v>
+        <v>-13900</v>
       </c>
       <c r="F23" s="3">
         <v>-700</v>
       </c>
       <c r="G23" s="3">
-        <v>-105400</v>
+        <v>-102100</v>
       </c>
       <c r="H23" s="3">
-        <v>-27400</v>
+        <v>-26500</v>
       </c>
       <c r="I23" s="3">
-        <v>-15900</v>
+        <v>-15400</v>
       </c>
       <c r="J23" s="3">
-        <v>-62200</v>
+        <v>-60200</v>
       </c>
       <c r="K23" s="3">
         <v>-5400</v>
@@ -1200,13 +1200,13 @@
         <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I24" s="3">
         <v>-600</v>
       </c>
       <c r="J24" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K24" s="3">
         <v>700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E26" s="3">
-        <v>-15700</v>
+        <v>-15300</v>
       </c>
       <c r="F26" s="3">
         <v>-800</v>
       </c>
       <c r="G26" s="3">
-        <v>-105800</v>
+        <v>-102500</v>
       </c>
       <c r="H26" s="3">
-        <v>-29200</v>
+        <v>-28300</v>
       </c>
       <c r="I26" s="3">
-        <v>-15200</v>
+        <v>-14800</v>
       </c>
       <c r="J26" s="3">
-        <v>-62900</v>
+        <v>-61000</v>
       </c>
       <c r="K26" s="3">
         <v>-6100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E27" s="3">
-        <v>-14000</v>
+        <v>-13600</v>
       </c>
       <c r="F27" s="3">
         <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>-105800</v>
+        <v>-102500</v>
       </c>
       <c r="H27" s="3">
-        <v>-29200</v>
+        <v>-28300</v>
       </c>
       <c r="I27" s="3">
-        <v>-15200</v>
+        <v>-14800</v>
       </c>
       <c r="J27" s="3">
-        <v>-62900</v>
+        <v>-61000</v>
       </c>
       <c r="K27" s="3">
         <v>-6100</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21900</v>
+        <v>-21200</v>
       </c>
       <c r="E32" s="3">
         <v>2100</v>
       </c>
       <c r="F32" s="3">
-        <v>-7300</v>
+        <v>-7100</v>
       </c>
       <c r="G32" s="3">
-        <v>19500</v>
+        <v>18900</v>
       </c>
       <c r="H32" s="3">
-        <v>20600</v>
+        <v>20000</v>
       </c>
       <c r="I32" s="3">
-        <v>19700</v>
+        <v>19000</v>
       </c>
       <c r="J32" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="K32" s="3">
         <v>-6600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E33" s="3">
-        <v>-14000</v>
+        <v>-13600</v>
       </c>
       <c r="F33" s="3">
         <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>-105800</v>
+        <v>-102500</v>
       </c>
       <c r="H33" s="3">
-        <v>-29200</v>
+        <v>-28300</v>
       </c>
       <c r="I33" s="3">
-        <v>-15200</v>
+        <v>-14800</v>
       </c>
       <c r="J33" s="3">
-        <v>-62900</v>
+        <v>-61000</v>
       </c>
       <c r="K33" s="3">
         <v>-6100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E35" s="3">
-        <v>-14000</v>
+        <v>-13600</v>
       </c>
       <c r="F35" s="3">
         <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>-105800</v>
+        <v>-102500</v>
       </c>
       <c r="H35" s="3">
-        <v>-29200</v>
+        <v>-28300</v>
       </c>
       <c r="I35" s="3">
-        <v>-15200</v>
+        <v>-14800</v>
       </c>
       <c r="J35" s="3">
-        <v>-62900</v>
+        <v>-61000</v>
       </c>
       <c r="K35" s="3">
         <v>-6100</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="E41" s="3">
-        <v>22800</v>
+        <v>22100</v>
       </c>
       <c r="F41" s="3">
-        <v>29200</v>
+        <v>28300</v>
       </c>
       <c r="G41" s="3">
-        <v>84100</v>
+        <v>81500</v>
       </c>
       <c r="H41" s="3">
-        <v>39700</v>
+        <v>38500</v>
       </c>
       <c r="I41" s="3">
-        <v>144100</v>
+        <v>139600</v>
       </c>
       <c r="J41" s="3">
-        <v>195100</v>
+        <v>189000</v>
       </c>
       <c r="K41" s="3">
         <v>6600</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15300</v>
+        <v>14800</v>
       </c>
       <c r="E43" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="F43" s="3">
-        <v>18900</v>
+        <v>18300</v>
       </c>
       <c r="G43" s="3">
-        <v>34500</v>
+        <v>33400</v>
       </c>
       <c r="H43" s="3">
-        <v>36300</v>
+        <v>35200</v>
       </c>
       <c r="I43" s="3">
-        <v>47200</v>
+        <v>45800</v>
       </c>
       <c r="J43" s="3">
-        <v>38200</v>
+        <v>37000</v>
       </c>
       <c r="K43" s="3">
         <v>33300</v>
@@ -1763,7 +1763,7 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I44" s="3">
         <v>1700</v>
@@ -1784,13 +1784,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E45" s="3">
         <v>1700</v>
       </c>
       <c r="F45" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G45" s="3">
         <v>1300</v>
@@ -1799,7 +1799,7 @@
         <v>900</v>
       </c>
       <c r="I45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32400</v>
+        <v>31400</v>
       </c>
       <c r="E46" s="3">
-        <v>35700</v>
+        <v>34600</v>
       </c>
       <c r="F46" s="3">
-        <v>50200</v>
+        <v>48600</v>
       </c>
       <c r="G46" s="3">
-        <v>60400</v>
+        <v>58500</v>
       </c>
       <c r="H46" s="3">
-        <v>78400</v>
+        <v>76000</v>
       </c>
       <c r="I46" s="3">
-        <v>112800</v>
+        <v>109300</v>
       </c>
       <c r="J46" s="3">
-        <v>137000</v>
+        <v>132700</v>
       </c>
       <c r="K46" s="3">
         <v>42100</v>
@@ -1859,7 +1859,7 @@
         <v>8</v>
       </c>
       <c r="G47" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H47" s="3">
         <v>500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>133700</v>
+        <v>129500</v>
       </c>
       <c r="E48" s="3">
-        <v>112800</v>
+        <v>109300</v>
       </c>
       <c r="F48" s="3">
-        <v>117300</v>
+        <v>113600</v>
       </c>
       <c r="G48" s="3">
-        <v>235600</v>
+        <v>228200</v>
       </c>
       <c r="H48" s="3">
-        <v>188000</v>
+        <v>182200</v>
       </c>
       <c r="I48" s="3">
-        <v>346300</v>
+        <v>335500</v>
       </c>
       <c r="J48" s="3">
-        <v>286800</v>
+        <v>277800</v>
       </c>
       <c r="K48" s="3">
         <v>175600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="E49" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="F49" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="G49" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="H49" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="I49" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="J49" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="K49" s="3">
         <v>6100</v>
@@ -2015,22 +2015,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E52" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F52" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G52" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H52" s="3">
         <v>1100</v>
       </c>
       <c r="I52" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="J52" s="3">
         <v>1400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>187400</v>
+        <v>181500</v>
       </c>
       <c r="E54" s="3">
-        <v>164100</v>
+        <v>159000</v>
       </c>
       <c r="F54" s="3">
-        <v>183500</v>
+        <v>177700</v>
       </c>
       <c r="G54" s="3">
-        <v>192200</v>
+        <v>186200</v>
       </c>
       <c r="H54" s="3">
-        <v>279200</v>
+        <v>270500</v>
       </c>
       <c r="I54" s="3">
-        <v>296800</v>
+        <v>287500</v>
       </c>
       <c r="J54" s="3">
-        <v>286900</v>
+        <v>278000</v>
       </c>
       <c r="K54" s="3">
         <v>225400</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>26300</v>
+        <v>25500</v>
       </c>
       <c r="E57" s="3">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="F57" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="G57" s="3">
-        <v>20200</v>
+        <v>19500</v>
       </c>
       <c r="H57" s="3">
-        <v>18200</v>
+        <v>17700</v>
       </c>
       <c r="I57" s="3">
-        <v>30000</v>
+        <v>29100</v>
       </c>
       <c r="J57" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="K57" s="3">
         <v>18300</v>
@@ -2177,7 +2177,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="E58" s="3">
         <v>1900</v>
@@ -2186,7 +2186,7 @@
         <v>1800</v>
       </c>
       <c r="G58" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E59" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F59" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="G59" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H59" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="I59" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J59" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="K59" s="3">
         <v>3100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>36600</v>
+        <v>35500</v>
       </c>
       <c r="E60" s="3">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="F60" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="G60" s="3">
-        <v>23600</v>
+        <v>22800</v>
       </c>
       <c r="H60" s="3">
-        <v>24700</v>
+        <v>24000</v>
       </c>
       <c r="I60" s="3">
-        <v>32300</v>
+        <v>31300</v>
       </c>
       <c r="J60" s="3">
-        <v>23500</v>
+        <v>22800</v>
       </c>
       <c r="K60" s="3">
         <v>21600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>70800</v>
+        <v>68500</v>
       </c>
       <c r="E61" s="3">
-        <v>107800</v>
+        <v>104400</v>
       </c>
       <c r="F61" s="3">
-        <v>106900</v>
+        <v>103600</v>
       </c>
       <c r="G61" s="3">
-        <v>122800</v>
+        <v>119000</v>
       </c>
       <c r="H61" s="3">
-        <v>110500</v>
+        <v>107000</v>
       </c>
       <c r="I61" s="3">
-        <v>110800</v>
+        <v>107300</v>
       </c>
       <c r="J61" s="3">
-        <v>95500</v>
+        <v>92500</v>
       </c>
       <c r="K61" s="3">
         <v>103200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="E62" s="3">
         <v>1900</v>
       </c>
       <c r="F62" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G62" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="H62" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I62" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="J62" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="K62" s="3">
         <v>2900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>119500</v>
+        <v>115800</v>
       </c>
       <c r="E66" s="3">
-        <v>130200</v>
+        <v>126100</v>
       </c>
       <c r="F66" s="3">
-        <v>137300</v>
+        <v>133000</v>
       </c>
       <c r="G66" s="3">
-        <v>152700</v>
+        <v>147900</v>
       </c>
       <c r="H66" s="3">
-        <v>139500</v>
+        <v>135100</v>
       </c>
       <c r="I66" s="3">
-        <v>149900</v>
+        <v>145200</v>
       </c>
       <c r="J66" s="3">
-        <v>129400</v>
+        <v>125300</v>
       </c>
       <c r="K66" s="3">
         <v>127800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-28400</v>
+        <v>-27500</v>
       </c>
       <c r="E72" s="3">
-        <v>-44800</v>
+        <v>-43400</v>
       </c>
       <c r="F72" s="3">
-        <v>-28900</v>
+        <v>-28000</v>
       </c>
       <c r="G72" s="3">
-        <v>-691000</v>
+        <v>-669400</v>
       </c>
       <c r="H72" s="3">
-        <v>-239700</v>
+        <v>-232200</v>
       </c>
       <c r="I72" s="3">
-        <v>-210600</v>
+        <v>-204000</v>
       </c>
       <c r="J72" s="3">
-        <v>-257800</v>
+        <v>-249700</v>
       </c>
       <c r="K72" s="3">
         <v>-119700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>67800</v>
+        <v>65700</v>
       </c>
       <c r="E76" s="3">
-        <v>33900</v>
+        <v>32900</v>
       </c>
       <c r="F76" s="3">
-        <v>46100</v>
+        <v>44700</v>
       </c>
       <c r="G76" s="3">
-        <v>39500</v>
+        <v>38200</v>
       </c>
       <c r="H76" s="3">
-        <v>139800</v>
+        <v>135400</v>
       </c>
       <c r="I76" s="3">
-        <v>146900</v>
+        <v>142300</v>
       </c>
       <c r="J76" s="3">
-        <v>157600</v>
+        <v>152600</v>
       </c>
       <c r="K76" s="3">
         <v>97700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E81" s="3">
-        <v>-14000</v>
+        <v>-13600</v>
       </c>
       <c r="F81" s="3">
         <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>-105800</v>
+        <v>-102500</v>
       </c>
       <c r="H81" s="3">
-        <v>-29200</v>
+        <v>-28300</v>
       </c>
       <c r="I81" s="3">
-        <v>-15200</v>
+        <v>-14800</v>
       </c>
       <c r="J81" s="3">
-        <v>-62900</v>
+        <v>-61000</v>
       </c>
       <c r="K81" s="3">
         <v>-6100</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20400</v>
+        <v>19800</v>
       </c>
       <c r="E83" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="F83" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="G83" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="H83" s="3">
+        <v>17200</v>
+      </c>
+      <c r="I83" s="3">
         <v>17800</v>
       </c>
-      <c r="I83" s="3">
-        <v>18400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>28700</v>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19600</v>
+        <v>10500</v>
       </c>
       <c r="E89" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F89" s="3">
         <v>2500</v>
       </c>
-      <c r="F89" s="3">
-        <v>2600</v>
-      </c>
       <c r="G89" s="3">
-        <v>22200</v>
+        <v>21500</v>
       </c>
       <c r="H89" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="I89" s="3">
-        <v>25800</v>
+        <v>25000</v>
       </c>
       <c r="J89" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="K89" s="3">
         <v>34800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10600</v>
+        <v>-9100</v>
       </c>
       <c r="E91" s="3">
-        <v>-10200</v>
+        <v>-9900</v>
       </c>
       <c r="F91" s="3">
-        <v>-12100</v>
+        <v>-11800</v>
       </c>
       <c r="G91" s="3">
-        <v>-23900</v>
+        <v>-23100</v>
       </c>
       <c r="H91" s="3">
-        <v>-39900</v>
+        <v>-38700</v>
       </c>
       <c r="I91" s="3">
-        <v>-46700</v>
+        <v>-45300</v>
       </c>
       <c r="J91" s="3">
-        <v>-19300</v>
+        <v>-18700</v>
       </c>
       <c r="K91" s="3">
         <v>-26300</v>
@@ -3253,22 +3253,22 @@
         <v>-9000</v>
       </c>
       <c r="E94" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F94" s="3">
-        <v>-10100</v>
+        <v>-9800</v>
       </c>
       <c r="G94" s="3">
-        <v>-10000</v>
+        <v>-9700</v>
       </c>
       <c r="H94" s="3">
-        <v>-36800</v>
+        <v>-35700</v>
       </c>
       <c r="I94" s="3">
-        <v>-46700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-19200</v>
+        <v>-45200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-18700</v>
+        <v>-8400</v>
       </c>
       <c r="E100" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="F100" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="G100" s="3">
-        <v>-11800</v>
+        <v>-11500</v>
       </c>
       <c r="H100" s="3">
         <v>3100</v>
       </c>
       <c r="I100" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100800</v>
+        <v>-5700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3475,13 +3475,13 @@
         <v>1800</v>
       </c>
       <c r="H101" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="I101" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>200</v>
+        <v>1200</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="E102" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="F102" s="3">
-        <v>-12600</v>
+        <v>-12200</v>
       </c>
       <c r="G102" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H102" s="3">
-        <v>-32300</v>
+        <v>-31300</v>
       </c>
       <c r="I102" s="3">
-        <v>-25500</v>
+        <v>-24700</v>
       </c>
       <c r="J102" s="3">
-        <v>90200</v>
+        <v>87400</v>
       </c>
       <c r="K102" s="3">
         <v>-11300</v>

--- a/AAII_Financials/Yearly/MXMTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MXMTY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>MXMTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>69100</v>
+        <v>45600</v>
       </c>
       <c r="E8" s="3">
-        <v>63600</v>
+        <v>71700</v>
       </c>
       <c r="F8" s="3">
-        <v>109100</v>
+        <v>66100</v>
       </c>
       <c r="G8" s="3">
+        <v>113300</v>
+      </c>
+      <c r="H8" s="3">
+        <v>124000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>119000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>135100</v>
+      </c>
+      <c r="K8" s="3">
         <v>119400</v>
       </c>
-      <c r="H8" s="3">
-        <v>114600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>130100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>119400</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>99100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>122900</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>59200</v>
+        <v>40100</v>
       </c>
       <c r="E9" s="3">
-        <v>40000</v>
+        <v>61500</v>
       </c>
       <c r="F9" s="3">
-        <v>81700</v>
+        <v>41500</v>
       </c>
       <c r="G9" s="3">
-        <v>94000</v>
+        <v>84800</v>
       </c>
       <c r="H9" s="3">
-        <v>72300</v>
+        <v>97600</v>
       </c>
       <c r="I9" s="3">
-        <v>78600</v>
+        <v>75100</v>
       </c>
       <c r="J9" s="3">
+        <v>81600</v>
+      </c>
+      <c r="K9" s="3">
         <v>128900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39800</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9900</v>
+        <v>5400</v>
       </c>
       <c r="E10" s="3">
-        <v>23600</v>
+        <v>10200</v>
       </c>
       <c r="F10" s="3">
-        <v>27400</v>
+        <v>24500</v>
       </c>
       <c r="G10" s="3">
-        <v>25400</v>
+        <v>28500</v>
       </c>
       <c r="H10" s="3">
-        <v>42300</v>
+        <v>26400</v>
       </c>
       <c r="I10" s="3">
-        <v>51600</v>
+        <v>43900</v>
       </c>
       <c r="J10" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K10" s="3">
         <v>-9600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>83000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="E14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="F14" s="3">
-        <v>3600</v>
-      </c>
       <c r="G14" s="3">
-        <v>54800</v>
+        <v>3700</v>
       </c>
       <c r="H14" s="3">
-        <v>-4900</v>
+        <v>56900</v>
       </c>
       <c r="I14" s="3">
-        <v>-1700</v>
+        <v>-5100</v>
       </c>
       <c r="J14" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K14" s="3">
         <v>28800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-4100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -933,32 +955,35 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
+        <v>600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>400</v>
+      </c>
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
-        <v>300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>500</v>
-      </c>
       <c r="H15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
       </c>
       <c r="J15" s="3">
+        <v>600</v>
+      </c>
+      <c r="K15" s="3">
         <v>29100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>26000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>34600</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>79400</v>
+        <v>58900</v>
       </c>
       <c r="E17" s="3">
-        <v>66800</v>
+        <v>82400</v>
       </c>
       <c r="F17" s="3">
-        <v>108700</v>
+        <v>69300</v>
       </c>
       <c r="G17" s="3">
-        <v>189700</v>
+        <v>112900</v>
       </c>
       <c r="H17" s="3">
-        <v>113500</v>
+        <v>197000</v>
       </c>
       <c r="I17" s="3">
-        <v>125600</v>
+        <v>117800</v>
       </c>
       <c r="J17" s="3">
+        <v>130400</v>
+      </c>
+      <c r="K17" s="3">
         <v>167900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>97600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>122400</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-10300</v>
+        <v>-13300</v>
       </c>
       <c r="E18" s="3">
-        <v>-3200</v>
+        <v>-10700</v>
       </c>
       <c r="F18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-70300</v>
-      </c>
       <c r="H18" s="3">
-        <v>1100</v>
+        <v>-73000</v>
       </c>
       <c r="I18" s="3">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="J18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-48500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,64 +1082,68 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21200</v>
+        <v>-3800</v>
       </c>
       <c r="E20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
-        <v>7100</v>
-      </c>
       <c r="G20" s="3">
-        <v>-18900</v>
+        <v>7400</v>
       </c>
       <c r="H20" s="3">
-        <v>-20000</v>
+        <v>-19600</v>
       </c>
       <c r="I20" s="3">
-        <v>-19000</v>
+        <v>-20800</v>
       </c>
       <c r="J20" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-10900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12400</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>30400</v>
+        <v>2000</v>
       </c>
       <c r="E21" s="3">
-        <v>6100</v>
+        <v>31900</v>
       </c>
       <c r="F21" s="3">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="G21" s="3">
-        <v>-71700</v>
+        <v>18300</v>
       </c>
       <c r="H21" s="3">
-        <v>-1900</v>
+        <v>-74100</v>
       </c>
       <c r="I21" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>-1700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1115,75 +1151,84 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13800</v>
+        <v>8700</v>
       </c>
       <c r="E22" s="3">
-        <v>8700</v>
+        <v>14400</v>
       </c>
       <c r="F22" s="3">
-        <v>8200</v>
+        <v>9000</v>
       </c>
       <c r="G22" s="3">
-        <v>12900</v>
+        <v>8500</v>
       </c>
       <c r="H22" s="3">
-        <v>7600</v>
+        <v>13400</v>
       </c>
       <c r="I22" s="3">
-        <v>800</v>
+        <v>7900</v>
       </c>
       <c r="J22" s="3">
         <v>800</v>
       </c>
       <c r="K22" s="3">
+        <v>800</v>
+      </c>
+      <c r="L22" s="3">
         <v>13500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15400</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3000</v>
+        <v>-25800</v>
       </c>
       <c r="E23" s="3">
-        <v>-13900</v>
+        <v>-3100</v>
       </c>
       <c r="F23" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-102100</v>
-      </c>
       <c r="H23" s="3">
-        <v>-26500</v>
+        <v>-106000</v>
       </c>
       <c r="I23" s="3">
-        <v>-15400</v>
+        <v>-27600</v>
       </c>
       <c r="J23" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-60200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1191,32 +1236,35 @@
         <v>400</v>
       </c>
       <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>300</v>
-      </c>
       <c r="H24" s="3">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="I24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J24" s="3">
         <v>-600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>700</v>
       </c>
       <c r="K24" s="3">
         <v>700</v>
       </c>
       <c r="L24" s="3">
+        <v>700</v>
+      </c>
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3400</v>
+        <v>-26200</v>
       </c>
       <c r="E26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-106400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-15300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-102500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-28300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-61000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2500</v>
+        <v>-26200</v>
       </c>
       <c r="E27" s="3">
-        <v>-13600</v>
+        <v>-2600</v>
       </c>
       <c r="F27" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-102500</v>
-      </c>
       <c r="H27" s="3">
-        <v>-28300</v>
+        <v>-106400</v>
       </c>
       <c r="I27" s="3">
-        <v>-14800</v>
+        <v>-29300</v>
       </c>
       <c r="J27" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-61000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26100</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21200</v>
+        <v>3800</v>
       </c>
       <c r="E32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-7100</v>
-      </c>
       <c r="G32" s="3">
-        <v>18900</v>
+        <v>-7400</v>
       </c>
       <c r="H32" s="3">
-        <v>20000</v>
+        <v>19600</v>
       </c>
       <c r="I32" s="3">
-        <v>19000</v>
+        <v>20800</v>
       </c>
       <c r="J32" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K32" s="3">
         <v>10900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12400</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2500</v>
+        <v>-26200</v>
       </c>
       <c r="E33" s="3">
-        <v>-13600</v>
+        <v>-2600</v>
       </c>
       <c r="F33" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-102500</v>
-      </c>
       <c r="H33" s="3">
-        <v>-28300</v>
+        <v>-106400</v>
       </c>
       <c r="I33" s="3">
-        <v>-14800</v>
+        <v>-29300</v>
       </c>
       <c r="J33" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-61000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2500</v>
+        <v>-26200</v>
       </c>
       <c r="E35" s="3">
-        <v>-13600</v>
+        <v>-2600</v>
       </c>
       <c r="F35" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-102500</v>
-      </c>
       <c r="H35" s="3">
-        <v>-28300</v>
+        <v>-106400</v>
       </c>
       <c r="I35" s="3">
-        <v>-14800</v>
+        <v>-29300</v>
       </c>
       <c r="J35" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-61000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15100</v>
+        <v>4600</v>
       </c>
       <c r="E41" s="3">
-        <v>22100</v>
+        <v>15700</v>
       </c>
       <c r="F41" s="3">
-        <v>28300</v>
+        <v>22900</v>
       </c>
       <c r="G41" s="3">
-        <v>81500</v>
+        <v>29400</v>
       </c>
       <c r="H41" s="3">
-        <v>38500</v>
+        <v>84600</v>
       </c>
       <c r="I41" s="3">
-        <v>139600</v>
+        <v>39900</v>
       </c>
       <c r="J41" s="3">
+        <v>144900</v>
+      </c>
+      <c r="K41" s="3">
         <v>189000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,42 +1800,48 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14800</v>
+        <v>9200</v>
       </c>
       <c r="E43" s="3">
-        <v>10700</v>
+        <v>15400</v>
       </c>
       <c r="F43" s="3">
-        <v>18300</v>
+        <v>11100</v>
       </c>
       <c r="G43" s="3">
-        <v>33400</v>
+        <v>19000</v>
       </c>
       <c r="H43" s="3">
-        <v>35200</v>
+        <v>34700</v>
       </c>
       <c r="I43" s="3">
-        <v>45800</v>
+        <v>36600</v>
       </c>
       <c r="J43" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K43" s="3">
         <v>37000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>40800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1754,197 +1849,215 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3">
-        <v>1400</v>
-      </c>
       <c r="I44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J44" s="3">
         <v>1700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>800</v>
       </c>
       <c r="K44" s="3">
         <v>800</v>
       </c>
       <c r="L44" s="3">
+        <v>800</v>
+      </c>
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
-        <v>500</v>
-      </c>
       <c r="J45" s="3">
+        <v>600</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31400</v>
+        <v>9600</v>
       </c>
       <c r="E46" s="3">
-        <v>34600</v>
+        <v>32600</v>
       </c>
       <c r="F46" s="3">
-        <v>48600</v>
+        <v>35900</v>
       </c>
       <c r="G46" s="3">
-        <v>58500</v>
+        <v>50500</v>
       </c>
       <c r="H46" s="3">
-        <v>76000</v>
+        <v>60800</v>
       </c>
       <c r="I46" s="3">
-        <v>109300</v>
+        <v>78900</v>
       </c>
       <c r="J46" s="3">
+        <v>113500</v>
+      </c>
+      <c r="K46" s="3">
         <v>132700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>42100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>64500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>300</v>
+      </c>
+      <c r="E47" s="3">
         <v>500</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>2200</v>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H47" s="3">
-        <v>500</v>
+        <v>2300</v>
       </c>
       <c r="I47" s="3">
         <v>500</v>
       </c>
       <c r="J47" s="3">
+        <v>600</v>
+      </c>
+      <c r="K47" s="3">
         <v>500</v>
-      </c>
-      <c r="K47" s="3">
-        <v>400</v>
       </c>
       <c r="L47" s="3">
         <v>400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>400</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>129500</v>
+        <v>244200</v>
       </c>
       <c r="E48" s="3">
-        <v>109300</v>
+        <v>134500</v>
       </c>
       <c r="F48" s="3">
-        <v>113600</v>
+        <v>113400</v>
       </c>
       <c r="G48" s="3">
-        <v>228200</v>
+        <v>118000</v>
       </c>
       <c r="H48" s="3">
-        <v>182200</v>
+        <v>237000</v>
       </c>
       <c r="I48" s="3">
-        <v>335500</v>
+        <v>189100</v>
       </c>
       <c r="J48" s="3">
+        <v>348300</v>
+      </c>
+      <c r="K48" s="3">
         <v>277800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>175600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>155300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17900</v>
+        <v>15200</v>
       </c>
       <c r="E49" s="3">
-        <v>13100</v>
+        <v>18600</v>
       </c>
       <c r="F49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>13300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>22200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J49" s="3">
         <v>12800</v>
       </c>
-      <c r="G49" s="3">
-        <v>21400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>10800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>12300</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7700</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="F52" s="3">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="G52" s="3">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="H52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
-        <v>4600</v>
-      </c>
       <c r="J52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>181500</v>
+        <v>147500</v>
       </c>
       <c r="E54" s="3">
-        <v>159000</v>
+        <v>188500</v>
       </c>
       <c r="F54" s="3">
-        <v>177700</v>
+        <v>165000</v>
       </c>
       <c r="G54" s="3">
-        <v>186200</v>
+        <v>184500</v>
       </c>
       <c r="H54" s="3">
-        <v>270500</v>
+        <v>193300</v>
       </c>
       <c r="I54" s="3">
-        <v>287500</v>
+        <v>280900</v>
       </c>
       <c r="J54" s="3">
+        <v>298500</v>
+      </c>
+      <c r="K54" s="3">
         <v>278000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>225400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>279700</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25500</v>
+        <v>9500</v>
       </c>
       <c r="E57" s="3">
-        <v>10400</v>
+        <v>26400</v>
       </c>
       <c r="F57" s="3">
-        <v>15400</v>
+        <v>10800</v>
       </c>
       <c r="G57" s="3">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="H57" s="3">
-        <v>17700</v>
+        <v>20300</v>
       </c>
       <c r="I57" s="3">
-        <v>29100</v>
+        <v>18300</v>
       </c>
       <c r="J57" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K57" s="3">
         <v>12900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6100</v>
+        <v>4900</v>
       </c>
       <c r="E58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1800</v>
       </c>
       <c r="G58" s="3">
         <v>1800</v>
       </c>
       <c r="H58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3900</v>
+        <v>5500</v>
       </c>
       <c r="E59" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="F59" s="3">
-        <v>5300</v>
+        <v>4700</v>
       </c>
       <c r="G59" s="3">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="H59" s="3">
-        <v>6000</v>
+        <v>3100</v>
       </c>
       <c r="I59" s="3">
-        <v>2800</v>
+        <v>6200</v>
       </c>
       <c r="J59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K59" s="3">
         <v>9400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35500</v>
+        <v>19800</v>
       </c>
       <c r="E60" s="3">
-        <v>16800</v>
+        <v>36800</v>
       </c>
       <c r="F60" s="3">
-        <v>22500</v>
+        <v>17500</v>
       </c>
       <c r="G60" s="3">
+        <v>23300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>23700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K60" s="3">
         <v>22800</v>
       </c>
-      <c r="H60" s="3">
-        <v>24000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>31300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>22800</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>68500</v>
+        <v>75200</v>
       </c>
       <c r="E61" s="3">
-        <v>104400</v>
+        <v>71200</v>
       </c>
       <c r="F61" s="3">
-        <v>103600</v>
+        <v>108400</v>
       </c>
       <c r="G61" s="3">
-        <v>119000</v>
+        <v>107600</v>
       </c>
       <c r="H61" s="3">
-        <v>107000</v>
+        <v>123500</v>
       </c>
       <c r="I61" s="3">
-        <v>107300</v>
+        <v>111100</v>
       </c>
       <c r="J61" s="3">
+        <v>111400</v>
+      </c>
+      <c r="K61" s="3">
         <v>92500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>103200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>142300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="E62" s="3">
-        <v>1900</v>
+        <v>12200</v>
       </c>
       <c r="F62" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="G62" s="3">
-        <v>7300</v>
+        <v>2400</v>
       </c>
       <c r="H62" s="3">
-        <v>4100</v>
+        <v>7600</v>
       </c>
       <c r="I62" s="3">
-        <v>7400</v>
+        <v>4300</v>
       </c>
       <c r="J62" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K62" s="3">
         <v>10000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>115800</v>
+        <v>106900</v>
       </c>
       <c r="E66" s="3">
-        <v>126100</v>
+        <v>120200</v>
       </c>
       <c r="F66" s="3">
-        <v>133000</v>
+        <v>130900</v>
       </c>
       <c r="G66" s="3">
-        <v>147900</v>
+        <v>138100</v>
       </c>
       <c r="H66" s="3">
-        <v>135100</v>
+        <v>153600</v>
       </c>
       <c r="I66" s="3">
-        <v>145200</v>
+        <v>140300</v>
       </c>
       <c r="J66" s="3">
+        <v>150800</v>
+      </c>
+      <c r="K66" s="3">
         <v>125300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>127800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>160900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-27500</v>
+        <v>-55300</v>
       </c>
       <c r="E72" s="3">
-        <v>-43400</v>
+        <v>-28500</v>
       </c>
       <c r="F72" s="3">
-        <v>-28000</v>
+        <v>-45000</v>
       </c>
       <c r="G72" s="3">
-        <v>-669400</v>
+        <v>-29100</v>
       </c>
       <c r="H72" s="3">
-        <v>-232200</v>
+        <v>-695000</v>
       </c>
       <c r="I72" s="3">
-        <v>-204000</v>
+        <v>-241100</v>
       </c>
       <c r="J72" s="3">
+        <v>-211800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-249700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-119700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-172400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>65700</v>
+        <v>40600</v>
       </c>
       <c r="E76" s="3">
-        <v>32900</v>
+        <v>68200</v>
       </c>
       <c r="F76" s="3">
-        <v>44700</v>
+        <v>34100</v>
       </c>
       <c r="G76" s="3">
-        <v>38200</v>
+        <v>46400</v>
       </c>
       <c r="H76" s="3">
-        <v>135400</v>
+        <v>39700</v>
       </c>
       <c r="I76" s="3">
-        <v>142300</v>
+        <v>140600</v>
       </c>
       <c r="J76" s="3">
+        <v>147700</v>
+      </c>
+      <c r="K76" s="3">
         <v>152600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>97700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>118800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2500</v>
+        <v>-26200</v>
       </c>
       <c r="E81" s="3">
-        <v>-13600</v>
+        <v>-2600</v>
       </c>
       <c r="F81" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-102500</v>
-      </c>
       <c r="H81" s="3">
-        <v>-28300</v>
+        <v>-106400</v>
       </c>
       <c r="I81" s="3">
-        <v>-14800</v>
+        <v>-29300</v>
       </c>
       <c r="J81" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-61000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,31 +3096,32 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19800</v>
+        <v>19100</v>
       </c>
       <c r="E83" s="3">
-        <v>11500</v>
+        <v>20500</v>
       </c>
       <c r="F83" s="3">
-        <v>10200</v>
+        <v>11900</v>
       </c>
       <c r="G83" s="3">
-        <v>17700</v>
+        <v>10600</v>
       </c>
       <c r="H83" s="3">
-        <v>17200</v>
+        <v>18400</v>
       </c>
       <c r="I83" s="3">
-        <v>17800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>17900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>18500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -2931,9 +3129,12 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10500</v>
+        <v>3300</v>
       </c>
       <c r="E89" s="3">
-        <v>2400</v>
+        <v>19800</v>
       </c>
       <c r="F89" s="3">
         <v>2500</v>
       </c>
       <c r="G89" s="3">
-        <v>21500</v>
+        <v>2600</v>
       </c>
       <c r="H89" s="3">
-        <v>-3000</v>
+        <v>22300</v>
       </c>
       <c r="I89" s="3">
-        <v>25000</v>
+        <v>-3100</v>
       </c>
       <c r="J89" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K89" s="3">
         <v>8200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>34800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9100</v>
+        <v>-4200</v>
       </c>
       <c r="E91" s="3">
-        <v>-9900</v>
+        <v>-10600</v>
       </c>
       <c r="F91" s="3">
-        <v>-11800</v>
+        <v>-10300</v>
       </c>
       <c r="G91" s="3">
-        <v>-23100</v>
+        <v>-12200</v>
       </c>
       <c r="H91" s="3">
-        <v>-38700</v>
+        <v>-24000</v>
       </c>
       <c r="I91" s="3">
-        <v>-45300</v>
+        <v>-40200</v>
       </c>
       <c r="J91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-18700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,32 +3469,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9000</v>
       </c>
-      <c r="E94" s="3">
-        <v>300</v>
-      </c>
       <c r="F94" s="3">
-        <v>-9800</v>
+        <v>400</v>
       </c>
       <c r="G94" s="3">
-        <v>-9700</v>
+        <v>-10200</v>
       </c>
       <c r="H94" s="3">
-        <v>-35700</v>
+        <v>-10100</v>
       </c>
       <c r="I94" s="3">
-        <v>-45200</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-37000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-46900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3276,9 +3505,12 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,32 +3665,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8400</v>
+        <v>-13400</v>
       </c>
       <c r="E100" s="3">
-        <v>-9000</v>
+        <v>-18800</v>
       </c>
       <c r="F100" s="3">
-        <v>-4500</v>
+        <v>-9400</v>
       </c>
       <c r="G100" s="3">
-        <v>-11500</v>
+        <v>-4700</v>
       </c>
       <c r="H100" s="3">
-        <v>3100</v>
+        <v>-11900</v>
       </c>
       <c r="I100" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>3200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-5900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3456,32 +3701,35 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1800</v>
       </c>
-      <c r="H101" s="3">
-        <v>4300</v>
-      </c>
       <c r="I101" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>4400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3489,40 +3737,46 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7000</v>
+        <v>-12600</v>
       </c>
       <c r="E102" s="3">
-        <v>-6200</v>
+        <v>-7200</v>
       </c>
       <c r="F102" s="3">
-        <v>-12200</v>
+        <v>-6500</v>
       </c>
       <c r="G102" s="3">
-        <v>2000</v>
+        <v>-12700</v>
       </c>
       <c r="H102" s="3">
-        <v>-31300</v>
+        <v>2100</v>
       </c>
       <c r="I102" s="3">
-        <v>-24700</v>
+        <v>-32500</v>
       </c>
       <c r="J102" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="K102" s="3">
         <v>87400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-31700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MXMTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MXMTY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>45600</v>
+        <v>45000</v>
       </c>
       <c r="E8" s="3">
-        <v>71700</v>
+        <v>70900</v>
       </c>
       <c r="F8" s="3">
-        <v>66100</v>
+        <v>65300</v>
       </c>
       <c r="G8" s="3">
-        <v>113300</v>
+        <v>111900</v>
       </c>
       <c r="H8" s="3">
-        <v>124000</v>
+        <v>122500</v>
       </c>
       <c r="I8" s="3">
-        <v>119000</v>
+        <v>117500</v>
       </c>
       <c r="J8" s="3">
-        <v>135100</v>
+        <v>133500</v>
       </c>
       <c r="K8" s="3">
         <v>119400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>40100</v>
+        <v>39700</v>
       </c>
       <c r="E9" s="3">
-        <v>61500</v>
+        <v>60700</v>
       </c>
       <c r="F9" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="G9" s="3">
-        <v>84800</v>
+        <v>83800</v>
       </c>
       <c r="H9" s="3">
-        <v>97600</v>
+        <v>96400</v>
       </c>
       <c r="I9" s="3">
-        <v>75100</v>
+        <v>74200</v>
       </c>
       <c r="J9" s="3">
-        <v>81600</v>
+        <v>80600</v>
       </c>
       <c r="K9" s="3">
         <v>128900</v>
@@ -795,22 +795,22 @@
         <v>5400</v>
       </c>
       <c r="E10" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="F10" s="3">
-        <v>24500</v>
+        <v>24200</v>
       </c>
       <c r="G10" s="3">
-        <v>28500</v>
+        <v>28100</v>
       </c>
       <c r="H10" s="3">
-        <v>26400</v>
+        <v>26100</v>
       </c>
       <c r="I10" s="3">
-        <v>43900</v>
+        <v>43400</v>
       </c>
       <c r="J10" s="3">
-        <v>53500</v>
+        <v>52900</v>
       </c>
       <c r="K10" s="3">
         <v>-9600</v>
@@ -928,7 +928,7 @@
         <v>3700</v>
       </c>
       <c r="H14" s="3">
-        <v>56900</v>
+        <v>56200</v>
       </c>
       <c r="I14" s="3">
         <v>-5100</v>
@@ -964,13 +964,13 @@
         <v>300</v>
       </c>
       <c r="H15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
       </c>
       <c r="J15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K15" s="3">
         <v>29100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>58900</v>
+        <v>58200</v>
       </c>
       <c r="E17" s="3">
-        <v>82400</v>
+        <v>81400</v>
       </c>
       <c r="F17" s="3">
-        <v>69300</v>
+        <v>68500</v>
       </c>
       <c r="G17" s="3">
-        <v>112900</v>
+        <v>111600</v>
       </c>
       <c r="H17" s="3">
-        <v>197000</v>
+        <v>194600</v>
       </c>
       <c r="I17" s="3">
-        <v>117800</v>
+        <v>116400</v>
       </c>
       <c r="J17" s="3">
-        <v>130400</v>
+        <v>128900</v>
       </c>
       <c r="K17" s="3">
         <v>167900</v>
@@ -1037,22 +1037,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-13300</v>
+        <v>-13200</v>
       </c>
       <c r="E18" s="3">
-        <v>-10700</v>
+        <v>-10600</v>
       </c>
       <c r="F18" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="G18" s="3">
         <v>400</v>
       </c>
       <c r="H18" s="3">
-        <v>-73000</v>
+        <v>-72100</v>
       </c>
       <c r="I18" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J18" s="3">
         <v>4600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="E20" s="3">
-        <v>22000</v>
+        <v>21700</v>
       </c>
       <c r="F20" s="3">
         <v>-2100</v>
       </c>
       <c r="G20" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="H20" s="3">
-        <v>-19600</v>
+        <v>-19300</v>
       </c>
       <c r="I20" s="3">
-        <v>-20800</v>
+        <v>-20500</v>
       </c>
       <c r="J20" s="3">
-        <v>-19800</v>
+        <v>-19500</v>
       </c>
       <c r="K20" s="3">
         <v>-10900</v>
@@ -1128,19 +1128,19 @@
         <v>2000</v>
       </c>
       <c r="E21" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="F21" s="3">
         <v>6500</v>
       </c>
       <c r="G21" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="H21" s="3">
-        <v>-74100</v>
+        <v>-73200</v>
       </c>
       <c r="I21" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="J21" s="3">
         <v>3400</v>
@@ -1161,22 +1161,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="E22" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="F22" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="G22" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="H22" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="I22" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="J22" s="3">
         <v>800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25800</v>
+        <v>-25500</v>
       </c>
       <c r="E23" s="3">
         <v>-3100</v>
       </c>
       <c r="F23" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="G23" s="3">
         <v>-700</v>
       </c>
       <c r="H23" s="3">
-        <v>-106000</v>
+        <v>-104800</v>
       </c>
       <c r="I23" s="3">
-        <v>-27600</v>
+        <v>-27200</v>
       </c>
       <c r="J23" s="3">
-        <v>-16000</v>
+        <v>-15800</v>
       </c>
       <c r="K23" s="3">
         <v>-60200</v>
@@ -1245,7 +1245,7 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>1800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="E26" s="3">
         <v>-3500</v>
       </c>
       <c r="F26" s="3">
-        <v>-15800</v>
+        <v>-15600</v>
       </c>
       <c r="G26" s="3">
         <v>-800</v>
       </c>
       <c r="H26" s="3">
-        <v>-106400</v>
+        <v>-105100</v>
       </c>
       <c r="I26" s="3">
-        <v>-29300</v>
+        <v>-29000</v>
       </c>
       <c r="J26" s="3">
-        <v>-15300</v>
+        <v>-15100</v>
       </c>
       <c r="K26" s="3">
         <v>-61000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="E27" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="F27" s="3">
-        <v>-14100</v>
+        <v>-13900</v>
       </c>
       <c r="G27" s="3">
         <v>100</v>
       </c>
       <c r="H27" s="3">
-        <v>-106400</v>
+        <v>-105100</v>
       </c>
       <c r="I27" s="3">
-        <v>-29300</v>
+        <v>-29000</v>
       </c>
       <c r="J27" s="3">
-        <v>-15300</v>
+        <v>-15100</v>
       </c>
       <c r="K27" s="3">
         <v>-61000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E32" s="3">
-        <v>-22000</v>
+        <v>-21700</v>
       </c>
       <c r="F32" s="3">
         <v>2100</v>
       </c>
       <c r="G32" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="H32" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="I32" s="3">
-        <v>20800</v>
+        <v>20500</v>
       </c>
       <c r="J32" s="3">
-        <v>19800</v>
+        <v>19500</v>
       </c>
       <c r="K32" s="3">
         <v>10900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="E33" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="F33" s="3">
-        <v>-14100</v>
+        <v>-13900</v>
       </c>
       <c r="G33" s="3">
         <v>100</v>
       </c>
       <c r="H33" s="3">
-        <v>-106400</v>
+        <v>-105100</v>
       </c>
       <c r="I33" s="3">
-        <v>-29300</v>
+        <v>-29000</v>
       </c>
       <c r="J33" s="3">
-        <v>-15300</v>
+        <v>-15100</v>
       </c>
       <c r="K33" s="3">
         <v>-61000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="E35" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="F35" s="3">
-        <v>-14100</v>
+        <v>-13900</v>
       </c>
       <c r="G35" s="3">
         <v>100</v>
       </c>
       <c r="H35" s="3">
-        <v>-106400</v>
+        <v>-105100</v>
       </c>
       <c r="I35" s="3">
-        <v>-29300</v>
+        <v>-29000</v>
       </c>
       <c r="J35" s="3">
-        <v>-15300</v>
+        <v>-15100</v>
       </c>
       <c r="K35" s="3">
         <v>-61000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E41" s="3">
-        <v>15700</v>
+        <v>15500</v>
       </c>
       <c r="F41" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="G41" s="3">
-        <v>29400</v>
+        <v>29000</v>
       </c>
       <c r="H41" s="3">
-        <v>84600</v>
+        <v>83600</v>
       </c>
       <c r="I41" s="3">
-        <v>39900</v>
+        <v>39500</v>
       </c>
       <c r="J41" s="3">
-        <v>144900</v>
+        <v>143200</v>
       </c>
       <c r="K41" s="3">
         <v>189000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="E43" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="F43" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="G43" s="3">
-        <v>19000</v>
+        <v>18800</v>
       </c>
       <c r="H43" s="3">
-        <v>34700</v>
+        <v>34300</v>
       </c>
       <c r="I43" s="3">
-        <v>36600</v>
+        <v>36100</v>
       </c>
       <c r="J43" s="3">
-        <v>47500</v>
+        <v>46900</v>
       </c>
       <c r="K43" s="3">
         <v>37000</v>
@@ -1861,7 +1861,7 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J44" s="3">
         <v>1700</v>
@@ -1885,22 +1885,22 @@
         <v>1600</v>
       </c>
       <c r="E45" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F45" s="3">
         <v>1700</v>
       </c>
       <c r="G45" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H45" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I45" s="3">
         <v>900</v>
       </c>
       <c r="J45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="E46" s="3">
-        <v>32600</v>
+        <v>32200</v>
       </c>
       <c r="F46" s="3">
-        <v>35900</v>
+        <v>35500</v>
       </c>
       <c r="G46" s="3">
-        <v>50500</v>
+        <v>49900</v>
       </c>
       <c r="H46" s="3">
-        <v>60800</v>
+        <v>60000</v>
       </c>
       <c r="I46" s="3">
-        <v>78900</v>
+        <v>78000</v>
       </c>
       <c r="J46" s="3">
-        <v>113500</v>
+        <v>112100</v>
       </c>
       <c r="K46" s="3">
         <v>132700</v>
@@ -1972,7 +1972,7 @@
         <v>500</v>
       </c>
       <c r="J47" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K47" s="3">
         <v>500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>244200</v>
+        <v>241200</v>
       </c>
       <c r="E48" s="3">
-        <v>134500</v>
+        <v>132900</v>
       </c>
       <c r="F48" s="3">
-        <v>113400</v>
+        <v>112100</v>
       </c>
       <c r="G48" s="3">
-        <v>118000</v>
+        <v>116600</v>
       </c>
       <c r="H48" s="3">
-        <v>237000</v>
+        <v>234100</v>
       </c>
       <c r="I48" s="3">
-        <v>189100</v>
+        <v>186900</v>
       </c>
       <c r="J48" s="3">
-        <v>348300</v>
+        <v>344200</v>
       </c>
       <c r="K48" s="3">
         <v>277800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="E49" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="F49" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="G49" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="H49" s="3">
-        <v>22200</v>
+        <v>21900</v>
       </c>
       <c r="I49" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="J49" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="K49" s="3">
         <v>9500</v>
@@ -2137,7 +2137,7 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F52" s="3">
         <v>2100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>147500</v>
+        <v>145800</v>
       </c>
       <c r="E54" s="3">
-        <v>188500</v>
+        <v>186200</v>
       </c>
       <c r="F54" s="3">
-        <v>165000</v>
+        <v>163100</v>
       </c>
       <c r="G54" s="3">
-        <v>184500</v>
+        <v>182300</v>
       </c>
       <c r="H54" s="3">
-        <v>193300</v>
+        <v>191000</v>
       </c>
       <c r="I54" s="3">
-        <v>280900</v>
+        <v>277500</v>
       </c>
       <c r="J54" s="3">
-        <v>298500</v>
+        <v>295000</v>
       </c>
       <c r="K54" s="3">
         <v>278000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="E57" s="3">
-        <v>26400</v>
+        <v>26100</v>
       </c>
       <c r="F57" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="G57" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="H57" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="I57" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="J57" s="3">
-        <v>30200</v>
+        <v>29900</v>
       </c>
       <c r="K57" s="3">
         <v>12900</v>
@@ -2310,7 +2310,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E58" s="3">
         <v>6300</v>
@@ -2346,7 +2346,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="E59" s="3">
         <v>4000</v>
@@ -2361,7 +2361,7 @@
         <v>3100</v>
       </c>
       <c r="I59" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="J59" s="3">
         <v>2900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="E60" s="3">
-        <v>36800</v>
+        <v>36400</v>
       </c>
       <c r="F60" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="G60" s="3">
-        <v>23300</v>
+        <v>23000</v>
       </c>
       <c r="H60" s="3">
-        <v>23700</v>
+        <v>23400</v>
       </c>
       <c r="I60" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="J60" s="3">
-        <v>32500</v>
+        <v>32100</v>
       </c>
       <c r="K60" s="3">
         <v>22800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>75200</v>
+        <v>74300</v>
       </c>
       <c r="E61" s="3">
-        <v>71200</v>
+        <v>21000</v>
       </c>
       <c r="F61" s="3">
-        <v>108400</v>
+        <v>1100</v>
       </c>
       <c r="G61" s="3">
-        <v>107600</v>
+        <v>2600</v>
       </c>
       <c r="H61" s="3">
-        <v>123500</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>111100</v>
+        <v>109800</v>
       </c>
       <c r="J61" s="3">
-        <v>111400</v>
+        <v>110100</v>
       </c>
       <c r="K61" s="3">
         <v>92500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="E62" s="3">
-        <v>12200</v>
+        <v>61400</v>
       </c>
       <c r="F62" s="3">
-        <v>2000</v>
+        <v>107900</v>
       </c>
       <c r="G62" s="3">
-        <v>2400</v>
+        <v>106000</v>
       </c>
       <c r="H62" s="3">
-        <v>7600</v>
+        <v>129300</v>
       </c>
       <c r="I62" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="J62" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="K62" s="3">
         <v>10000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>106900</v>
+        <v>105600</v>
       </c>
       <c r="E66" s="3">
-        <v>120200</v>
+        <v>118800</v>
       </c>
       <c r="F66" s="3">
-        <v>130900</v>
+        <v>129300</v>
       </c>
       <c r="G66" s="3">
-        <v>138100</v>
+        <v>136500</v>
       </c>
       <c r="H66" s="3">
-        <v>153600</v>
+        <v>151800</v>
       </c>
       <c r="I66" s="3">
-        <v>140300</v>
+        <v>138600</v>
       </c>
       <c r="J66" s="3">
-        <v>150800</v>
+        <v>149000</v>
       </c>
       <c r="K66" s="3">
         <v>125300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-55300</v>
+        <v>-54600</v>
       </c>
       <c r="E72" s="3">
-        <v>-28500</v>
+        <v>-28200</v>
       </c>
       <c r="F72" s="3">
-        <v>-45000</v>
+        <v>-44500</v>
       </c>
       <c r="G72" s="3">
-        <v>-29100</v>
+        <v>-28700</v>
       </c>
       <c r="H72" s="3">
-        <v>-695000</v>
+        <v>-686700</v>
       </c>
       <c r="I72" s="3">
-        <v>-241100</v>
+        <v>-238200</v>
       </c>
       <c r="J72" s="3">
-        <v>-211800</v>
+        <v>-209300</v>
       </c>
       <c r="K72" s="3">
         <v>-249700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40600</v>
+        <v>40100</v>
       </c>
       <c r="E76" s="3">
-        <v>68200</v>
+        <v>67400</v>
       </c>
       <c r="F76" s="3">
-        <v>34100</v>
+        <v>33700</v>
       </c>
       <c r="G76" s="3">
-        <v>46400</v>
+        <v>45900</v>
       </c>
       <c r="H76" s="3">
-        <v>39700</v>
+        <v>39200</v>
       </c>
       <c r="I76" s="3">
-        <v>140600</v>
+        <v>138900</v>
       </c>
       <c r="J76" s="3">
-        <v>147700</v>
+        <v>146000</v>
       </c>
       <c r="K76" s="3">
         <v>152600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="E81" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="F81" s="3">
-        <v>-14100</v>
+        <v>-13900</v>
       </c>
       <c r="G81" s="3">
         <v>100</v>
       </c>
       <c r="H81" s="3">
-        <v>-106400</v>
+        <v>-105100</v>
       </c>
       <c r="I81" s="3">
-        <v>-29300</v>
+        <v>-29000</v>
       </c>
       <c r="J81" s="3">
-        <v>-15300</v>
+        <v>-15100</v>
       </c>
       <c r="K81" s="3">
         <v>-61000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19100</v>
+        <v>18800</v>
       </c>
       <c r="E83" s="3">
-        <v>20500</v>
+        <v>20300</v>
       </c>
       <c r="F83" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="G83" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="H83" s="3">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="I83" s="3">
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="J83" s="3">
-        <v>18500</v>
+        <v>18300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3322,7 +3322,7 @@
         <v>3300</v>
       </c>
       <c r="E89" s="3">
-        <v>19800</v>
+        <v>19500</v>
       </c>
       <c r="F89" s="3">
         <v>2500</v>
@@ -3331,13 +3331,13 @@
         <v>2600</v>
       </c>
       <c r="H89" s="3">
-        <v>22300</v>
+        <v>22000</v>
       </c>
       <c r="I89" s="3">
         <v>-3100</v>
       </c>
       <c r="J89" s="3">
-        <v>25900</v>
+        <v>25600</v>
       </c>
       <c r="K89" s="3">
         <v>8200</v>
@@ -3374,22 +3374,22 @@
         <v>-4200</v>
       </c>
       <c r="E91" s="3">
-        <v>-10600</v>
+        <v>-10500</v>
       </c>
       <c r="F91" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="G91" s="3">
-        <v>-12200</v>
+        <v>-12100</v>
       </c>
       <c r="H91" s="3">
-        <v>-24000</v>
+        <v>-23700</v>
       </c>
       <c r="I91" s="3">
-        <v>-40200</v>
+        <v>-39700</v>
       </c>
       <c r="J91" s="3">
-        <v>-47000</v>
+        <v>-46400</v>
       </c>
       <c r="K91" s="3">
         <v>-18700</v>
@@ -3482,22 +3482,22 @@
         <v>-3100</v>
       </c>
       <c r="E94" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="F94" s="3">
         <v>400</v>
       </c>
       <c r="G94" s="3">
-        <v>-10200</v>
+        <v>-10000</v>
       </c>
       <c r="H94" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="I94" s="3">
-        <v>-37000</v>
+        <v>-36600</v>
       </c>
       <c r="J94" s="3">
-        <v>-46900</v>
+        <v>-46400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-13400</v>
+        <v>-13200</v>
       </c>
       <c r="E100" s="3">
-        <v>-18800</v>
+        <v>-18600</v>
       </c>
       <c r="F100" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="G100" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="H100" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="I100" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J100" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3729,7 +3729,7 @@
         <v>4400</v>
       </c>
       <c r="J101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12600</v>
+        <v>-12400</v>
       </c>
       <c r="E102" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="F102" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="G102" s="3">
-        <v>-12700</v>
+        <v>-12500</v>
       </c>
       <c r="H102" s="3">
         <v>2100</v>
       </c>
       <c r="I102" s="3">
-        <v>-32500</v>
+        <v>-32100</v>
       </c>
       <c r="J102" s="3">
-        <v>-25600</v>
+        <v>-25300</v>
       </c>
       <c r="K102" s="3">
         <v>87400</v>
